--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.806794602774801</v>
+        <v>3.806794602774744</v>
       </c>
       <c r="C2">
-        <v>0.7174306619512549</v>
+        <v>0.7174306619517665</v>
       </c>
       <c r="D2">
-        <v>0.2121432086484987</v>
+        <v>0.2121432086487403</v>
       </c>
       <c r="E2">
-        <v>0.2903808655682241</v>
+        <v>0.2903808655682383</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.990671694621625</v>
+        <v>8.990671694621597</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5020317327500052</v>
+        <v>0.5020317327499768</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230038168583292</v>
+        <v>3.230038168583633</v>
       </c>
       <c r="C3">
-        <v>0.6052486050155323</v>
+        <v>0.6052486050151344</v>
       </c>
       <c r="D3">
-        <v>0.1810729111805216</v>
+        <v>0.1810729111803511</v>
       </c>
       <c r="E3">
-        <v>0.247648489960568</v>
+        <v>0.2476484899605254</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.780000863353507</v>
+        <v>7.780000863353479</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4262598593929496</v>
+        <v>0.4262598593929567</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.890433841526487</v>
+        <v>2.890433841526601</v>
       </c>
       <c r="C4">
-        <v>0.5394265403093357</v>
+        <v>0.5394265403093073</v>
       </c>
       <c r="D4">
-        <v>0.1626683931455375</v>
+        <v>0.1626683931455091</v>
       </c>
       <c r="E4">
-        <v>0.2223799018932837</v>
+        <v>0.2223799018932766</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.06311448073717</v>
+        <v>7.063114480737255</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3815345101185912</v>
+        <v>0.3815345101185557</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.755067687331291</v>
+        <v>2.755067687331007</v>
       </c>
       <c r="C5">
-        <v>0.5132301069321556</v>
+        <v>0.5132301069325251</v>
       </c>
       <c r="D5">
-        <v>0.1553083649537967</v>
+        <v>0.1553083649539246</v>
       </c>
       <c r="E5">
-        <v>0.2122837221430274</v>
+        <v>0.2122837221429634</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.776454136377339</v>
+        <v>6.776454136377453</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.36368061327871</v>
+        <v>0.3636806132787456</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0.5089143338412612</v>
       </c>
       <c r="D6">
-        <v>0.1540939217382657</v>
+        <v>0.1540939217384647</v>
       </c>
       <c r="E6">
-        <v>0.2106182728890644</v>
+        <v>0.2106182728890502</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3607363503327434</v>
+        <v>0.3607363503327505</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888596752910701</v>
+        <v>2.888596752911042</v>
       </c>
       <c r="C7">
-        <v>0.5390708800318578</v>
+        <v>0.5390708800319146</v>
       </c>
       <c r="D7">
-        <v>0.1625686018655728</v>
+        <v>0.1625686018655585</v>
       </c>
       <c r="E7">
-        <v>0.222242979198306</v>
+        <v>0.2222429791983274</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.059227731070308</v>
+        <v>7.05922773107028</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.381292316656058</v>
+        <v>0.3812923166560225</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.604502085591605</v>
+        <v>3.604502085591776</v>
       </c>
       <c r="C8">
-        <v>0.6780217641567958</v>
+        <v>0.6780217641573074</v>
       </c>
       <c r="D8">
-        <v>0.2012714196416852</v>
+        <v>0.2012714196422252</v>
       </c>
       <c r="E8">
-        <v>0.2754175604941551</v>
+        <v>0.275417560494212</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.566966510467836</v>
+        <v>8.566966510467751</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.475479533248155</v>
+        <v>0.4754795332481621</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.158923299328308</v>
+        <v>5.158923299327967</v>
       </c>
       <c r="C9">
-        <v>0.9828437652342359</v>
+        <v>0.9828437652348327</v>
       </c>
       <c r="D9">
-        <v>0.2841339997670929</v>
+        <v>0.2841339997676187</v>
       </c>
       <c r="E9">
         <v>0.3897741717845449</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.79943552969488</v>
+        <v>11.79943552969473</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.457538061418916</v>
+        <v>6.457538061418688</v>
       </c>
       <c r="C10">
-        <v>1.241508987710404</v>
+        <v>1.241508987709665</v>
       </c>
       <c r="D10">
-        <v>0.3522204817758166</v>
+        <v>0.3522204817764418</v>
       </c>
       <c r="E10">
-        <v>0.4843039717189228</v>
+        <v>0.4843039717188873</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.46213971146182</v>
+        <v>14.4621397114621</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8481951089326571</v>
+        <v>0.8481951089326927</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.103632958329342</v>
+        <v>7.103632958329513</v>
       </c>
       <c r="C11">
-        <v>1.371722734638979</v>
+        <v>1.371722734638524</v>
       </c>
       <c r="D11">
-        <v>0.3857201770890981</v>
+        <v>0.3857201770897518</v>
       </c>
       <c r="E11">
-        <v>0.531016266390111</v>
+        <v>0.5310162663900471</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.7748614858466</v>
+        <v>15.77486148584671</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9321896862164039</v>
+        <v>0.9321896862163896</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.358858400810732</v>
+        <v>7.358858400810561</v>
       </c>
       <c r="C12">
-        <v>1.423454053160754</v>
+        <v>1.423454053161322</v>
       </c>
       <c r="D12">
-        <v>0.3988850671614159</v>
+        <v>0.3988850671610464</v>
       </c>
       <c r="E12">
-        <v>0.5494118543228197</v>
+        <v>0.5494118543227771</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.29125249070694</v>
+        <v>16.29125249070711</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9653371382062375</v>
+        <v>0.9653371382062517</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.303369157040606</v>
+        <v>7.303369157040947</v>
       </c>
       <c r="C13">
-        <v>1.412192628294434</v>
+        <v>1.412192628294861</v>
       </c>
       <c r="D13">
-        <v>0.3960261523570239</v>
+        <v>0.3960261523576918</v>
       </c>
       <c r="E13">
-        <v>0.5454151545204127</v>
+        <v>0.5454151545204056</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.17908684719652</v>
+        <v>16.17908684719657</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9581319737152683</v>
+        <v>0.9581319737152398</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.124400421408666</v>
+        <v>7.124400421408609</v>
       </c>
       <c r="C14">
-        <v>1.375925770163605</v>
+        <v>1.375925770163292</v>
       </c>
       <c r="D14">
-        <v>0.3867928411965096</v>
+        <v>0.3867928411959838</v>
       </c>
       <c r="E14">
-        <v>0.5325143010699875</v>
+        <v>0.5325143010699236</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.81692559335397</v>
+        <v>15.81692559335357</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.016246123240762</v>
+        <v>7.016246123240705</v>
       </c>
       <c r="C15">
-        <v>1.354049030683115</v>
+        <v>1.354049030683086</v>
       </c>
       <c r="D15">
-        <v>0.3812037321863215</v>
+        <v>0.3812037321862931</v>
       </c>
       <c r="E15">
-        <v>0.524710388827657</v>
+        <v>0.5247103888276428</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.59777203399949</v>
+        <v>15.59777203399955</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9208361639469445</v>
+        <v>0.9208361639470297</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.41663021010288</v>
+        <v>6.416630210102596</v>
       </c>
       <c r="C16">
-        <v>1.233299529700474</v>
+        <v>1.233299529700275</v>
       </c>
       <c r="D16">
-        <v>0.3500910710401115</v>
+        <v>0.3500910710397136</v>
       </c>
       <c r="E16">
-        <v>0.4813393333615537</v>
+        <v>0.4813393333615821</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.37875769266964</v>
+        <v>14.37875769266924</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8428727460634278</v>
+        <v>0.8428727460634633</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.064545375529008</v>
+        <v>6.064545375528667</v>
       </c>
       <c r="C17">
-        <v>1.162811155176314</v>
+        <v>1.16281115517674</v>
       </c>
       <c r="D17">
-        <v>0.3317224789708177</v>
+        <v>0.3317224789708035</v>
       </c>
       <c r="E17">
-        <v>0.4557884046008951</v>
+        <v>0.4557884046008382</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.65978638027471</v>
+        <v>13.6597863802748</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7970424489320891</v>
+        <v>0.7970424489320749</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.867047620280687</v>
+        <v>5.867047620280914</v>
       </c>
       <c r="C18">
-        <v>1.12340184961559</v>
+        <v>1.123401849615533</v>
       </c>
       <c r="D18">
-        <v>0.3213864364420544</v>
+        <v>0.3213864364422108</v>
       </c>
       <c r="E18">
-        <v>0.4414283087514121</v>
+        <v>0.4414283087514193</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.25544617480259</v>
+        <v>13.25544617480287</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7713167106068823</v>
+        <v>0.7713167106068539</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.800973797499068</v>
+        <v>5.800973797499637</v>
       </c>
       <c r="C19">
-        <v>1.110237842732943</v>
+        <v>1.110237842733568</v>
       </c>
       <c r="D19">
-        <v>0.3179232511392058</v>
+        <v>0.317923251138879</v>
       </c>
       <c r="E19">
-        <v>0.4366196023672302</v>
+        <v>0.4366196023671947</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.12000389814392</v>
+        <v>13.12000389814375</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7627070793818547</v>
+        <v>0.7627070793818334</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.101490656061117</v>
+        <v>6.10149065606123</v>
       </c>
       <c r="C20">
-        <v>1.170193641924527</v>
+        <v>1.170193641923362</v>
       </c>
       <c r="D20">
-        <v>0.3336534209889948</v>
+        <v>0.3336534209892648</v>
       </c>
       <c r="E20">
-        <v>0.4584724900474413</v>
+        <v>0.4584724900473915</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.7353416090024</v>
+        <v>13.73534160900272</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8018534354988205</v>
+        <v>0.8018534354987921</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.176655604433392</v>
+        <v>7.176655604433734</v>
       </c>
       <c r="C21">
-        <v>1.386506381793566</v>
+        <v>1.386506381793879</v>
       </c>
       <c r="D21">
-        <v>0.3894907482063132</v>
+        <v>0.3894907482061853</v>
       </c>
       <c r="E21">
-        <v>0.536282719319388</v>
+        <v>0.5362827193195301</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.92273154965665</v>
+        <v>15.92273154965687</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9416753416066683</v>
+        <v>0.9416753416065831</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.94292203990085</v>
+        <v>7.942922039900509</v>
       </c>
       <c r="C22">
-        <v>1.542481279822937</v>
+        <v>1.542481279822965</v>
       </c>
       <c r="D22">
-        <v>0.4288657664004916</v>
+        <v>0.4288657664003495</v>
       </c>
       <c r="E22">
-        <v>0.5913881838192196</v>
+        <v>0.5913881838191557</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.46836315796213</v>
+        <v>17.46836315796173</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.041127641556514</v>
+        <v>1.041127641556557</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.526993095496437</v>
+        <v>7.526993095496152</v>
       </c>
       <c r="C23">
         <v>1.457625834375136</v>
       </c>
       <c r="D23">
-        <v>0.4075364957152345</v>
+        <v>0.4075364957154193</v>
       </c>
       <c r="E23">
-        <v>0.5615127652938128</v>
+        <v>0.5615127652937204</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.6307654103631</v>
+        <v>16.63076541036276</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9871640594026729</v>
+        <v>0.9871640594025877</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.084772550651167</v>
+        <v>6.08477255065128</v>
       </c>
       <c r="C24">
-        <v>1.166852588581293</v>
+        <v>1.166852588581946</v>
       </c>
       <c r="D24">
-        <v>0.3327797515721898</v>
+        <v>0.332779751572005</v>
       </c>
       <c r="E24">
-        <v>0.4572580009073945</v>
+        <v>0.4572580009073874</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.70115536828081</v>
+        <v>13.70115536828055</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7996764721268335</v>
+        <v>0.7996764721268264</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.716612518407828</v>
+        <v>4.716612518407771</v>
       </c>
       <c r="C25">
-        <v>0.8956123012817159</v>
+        <v>0.8956123012825969</v>
       </c>
       <c r="D25">
-        <v>0.2607104815724028</v>
+        <v>0.2607104815726871</v>
       </c>
       <c r="E25">
-        <v>0.3573742334310452</v>
+        <v>0.3573742334311731</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6211786250004678</v>
+        <v>0.6211786250004252</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.806794602774744</v>
+        <v>3.806794602774801</v>
       </c>
       <c r="C2">
-        <v>0.7174306619517665</v>
+        <v>0.7174306619512549</v>
       </c>
       <c r="D2">
-        <v>0.2121432086487403</v>
+        <v>0.2121432086484987</v>
       </c>
       <c r="E2">
-        <v>0.2903808655682383</v>
+        <v>0.2903808655682241</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.990671694621597</v>
+        <v>8.990671694621625</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5020317327499768</v>
+        <v>0.5020317327500052</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,22 +450,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230038168583633</v>
+        <v>3.230038168583292</v>
       </c>
       <c r="C3">
-        <v>0.6052486050151344</v>
+        <v>0.6052486050155323</v>
       </c>
       <c r="D3">
-        <v>0.1810729111803511</v>
+        <v>0.1810729111805216</v>
       </c>
       <c r="E3">
-        <v>0.2476484899605254</v>
+        <v>0.247648489960568</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.780000863353479</v>
+        <v>7.780000863353507</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4262598593929567</v>
+        <v>0.4262598593929496</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.890433841526601</v>
+        <v>2.890433841526487</v>
       </c>
       <c r="C4">
-        <v>0.5394265403093073</v>
+        <v>0.5394265403093357</v>
       </c>
       <c r="D4">
-        <v>0.1626683931455091</v>
+        <v>0.1626683931455375</v>
       </c>
       <c r="E4">
-        <v>0.2223799018932766</v>
+        <v>0.2223799018932837</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.063114480737255</v>
+        <v>7.06311448073717</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3815345101185557</v>
+        <v>0.3815345101185912</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.755067687331007</v>
+        <v>2.755067687331291</v>
       </c>
       <c r="C5">
-        <v>0.5132301069325251</v>
+        <v>0.5132301069321556</v>
       </c>
       <c r="D5">
-        <v>0.1553083649539246</v>
+        <v>0.1553083649537967</v>
       </c>
       <c r="E5">
-        <v>0.2122837221429634</v>
+        <v>0.2122837221430274</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.776454136377453</v>
+        <v>6.776454136377339</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3636806132787456</v>
+        <v>0.36368061327871</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>0.5089143338412612</v>
       </c>
       <c r="D6">
-        <v>0.1540939217384647</v>
+        <v>0.1540939217382657</v>
       </c>
       <c r="E6">
-        <v>0.2106182728890502</v>
+        <v>0.2106182728890644</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3607363503327505</v>
+        <v>0.3607363503327434</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888596752911042</v>
+        <v>2.888596752910701</v>
       </c>
       <c r="C7">
-        <v>0.5390708800319146</v>
+        <v>0.5390708800318578</v>
       </c>
       <c r="D7">
-        <v>0.1625686018655585</v>
+        <v>0.1625686018655728</v>
       </c>
       <c r="E7">
-        <v>0.2222429791983274</v>
+        <v>0.222242979198306</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.05922773107028</v>
+        <v>7.059227731070308</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3812923166560225</v>
+        <v>0.381292316656058</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.604502085591776</v>
+        <v>3.604502085591605</v>
       </c>
       <c r="C8">
-        <v>0.6780217641573074</v>
+        <v>0.6780217641567958</v>
       </c>
       <c r="D8">
-        <v>0.2012714196422252</v>
+        <v>0.2012714196416852</v>
       </c>
       <c r="E8">
-        <v>0.275417560494212</v>
+        <v>0.2754175604941551</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.566966510467751</v>
+        <v>8.566966510467836</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4754795332481621</v>
+        <v>0.475479533248155</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.158923299327967</v>
+        <v>5.158923299328308</v>
       </c>
       <c r="C9">
-        <v>0.9828437652348327</v>
+        <v>0.9828437652342359</v>
       </c>
       <c r="D9">
-        <v>0.2841339997676187</v>
+        <v>0.2841339997670929</v>
       </c>
       <c r="E9">
         <v>0.3897741717845449</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.79943552969473</v>
+        <v>11.79943552969488</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -716,22 +716,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.457538061418688</v>
+        <v>6.457538061418916</v>
       </c>
       <c r="C10">
-        <v>1.241508987709665</v>
+        <v>1.241508987710404</v>
       </c>
       <c r="D10">
-        <v>0.3522204817764418</v>
+        <v>0.3522204817758166</v>
       </c>
       <c r="E10">
-        <v>0.4843039717188873</v>
+        <v>0.4843039717189228</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.4621397114621</v>
+        <v>14.46213971146182</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8481951089326927</v>
+        <v>0.8481951089326571</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.103632958329513</v>
+        <v>7.103632958329342</v>
       </c>
       <c r="C11">
-        <v>1.371722734638524</v>
+        <v>1.371722734638979</v>
       </c>
       <c r="D11">
-        <v>0.3857201770897518</v>
+        <v>0.3857201770890981</v>
       </c>
       <c r="E11">
-        <v>0.5310162663900471</v>
+        <v>0.531016266390111</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.77486148584671</v>
+        <v>15.7748614858466</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9321896862163896</v>
+        <v>0.9321896862164039</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.358858400810561</v>
+        <v>7.358858400810732</v>
       </c>
       <c r="C12">
-        <v>1.423454053161322</v>
+        <v>1.423454053160754</v>
       </c>
       <c r="D12">
-        <v>0.3988850671610464</v>
+        <v>0.3988850671614159</v>
       </c>
       <c r="E12">
-        <v>0.5494118543227771</v>
+        <v>0.5494118543228197</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.29125249070711</v>
+        <v>16.29125249070694</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9653371382062517</v>
+        <v>0.9653371382062375</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.303369157040947</v>
+        <v>7.303369157040606</v>
       </c>
       <c r="C13">
-        <v>1.412192628294861</v>
+        <v>1.412192628294434</v>
       </c>
       <c r="D13">
-        <v>0.3960261523576918</v>
+        <v>0.3960261523570239</v>
       </c>
       <c r="E13">
-        <v>0.5454151545204056</v>
+        <v>0.5454151545204127</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.17908684719657</v>
+        <v>16.17908684719652</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9581319737152398</v>
+        <v>0.9581319737152683</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.124400421408609</v>
+        <v>7.124400421408666</v>
       </c>
       <c r="C14">
-        <v>1.375925770163292</v>
+        <v>1.375925770163605</v>
       </c>
       <c r="D14">
-        <v>0.3867928411959838</v>
+        <v>0.3867928411965096</v>
       </c>
       <c r="E14">
-        <v>0.5325143010699236</v>
+        <v>0.5325143010699875</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.81692559335357</v>
+        <v>15.81692559335397</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.016246123240705</v>
+        <v>7.016246123240762</v>
       </c>
       <c r="C15">
-        <v>1.354049030683086</v>
+        <v>1.354049030683115</v>
       </c>
       <c r="D15">
-        <v>0.3812037321862931</v>
+        <v>0.3812037321863215</v>
       </c>
       <c r="E15">
-        <v>0.5247103888276428</v>
+        <v>0.524710388827657</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.59777203399955</v>
+        <v>15.59777203399949</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9208361639470297</v>
+        <v>0.9208361639469445</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.416630210102596</v>
+        <v>6.41663021010288</v>
       </c>
       <c r="C16">
-        <v>1.233299529700275</v>
+        <v>1.233299529700474</v>
       </c>
       <c r="D16">
-        <v>0.3500910710397136</v>
+        <v>0.3500910710401115</v>
       </c>
       <c r="E16">
-        <v>0.4813393333615821</v>
+        <v>0.4813393333615537</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.37875769266924</v>
+        <v>14.37875769266964</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8428727460634633</v>
+        <v>0.8428727460634278</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.064545375528667</v>
+        <v>6.064545375529008</v>
       </c>
       <c r="C17">
-        <v>1.16281115517674</v>
+        <v>1.162811155176314</v>
       </c>
       <c r="D17">
-        <v>0.3317224789708035</v>
+        <v>0.3317224789708177</v>
       </c>
       <c r="E17">
-        <v>0.4557884046008382</v>
+        <v>0.4557884046008951</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.6597863802748</v>
+        <v>13.65978638027471</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7970424489320749</v>
+        <v>0.7970424489320891</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.867047620280914</v>
+        <v>5.867047620280687</v>
       </c>
       <c r="C18">
-        <v>1.123401849615533</v>
+        <v>1.12340184961559</v>
       </c>
       <c r="D18">
-        <v>0.3213864364422108</v>
+        <v>0.3213864364420544</v>
       </c>
       <c r="E18">
-        <v>0.4414283087514193</v>
+        <v>0.4414283087514121</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.25544617480287</v>
+        <v>13.25544617480259</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7713167106068539</v>
+        <v>0.7713167106068823</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.800973797499637</v>
+        <v>5.800973797499068</v>
       </c>
       <c r="C19">
-        <v>1.110237842733568</v>
+        <v>1.110237842732943</v>
       </c>
       <c r="D19">
-        <v>0.317923251138879</v>
+        <v>0.3179232511392058</v>
       </c>
       <c r="E19">
-        <v>0.4366196023671947</v>
+        <v>0.4366196023672302</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.12000389814375</v>
+        <v>13.12000389814392</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7627070793818334</v>
+        <v>0.7627070793818547</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.10149065606123</v>
+        <v>6.101490656061117</v>
       </c>
       <c r="C20">
-        <v>1.170193641923362</v>
+        <v>1.170193641924527</v>
       </c>
       <c r="D20">
-        <v>0.3336534209892648</v>
+        <v>0.3336534209889948</v>
       </c>
       <c r="E20">
-        <v>0.4584724900473915</v>
+        <v>0.4584724900474413</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.73534160900272</v>
+        <v>13.7353416090024</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8018534354987921</v>
+        <v>0.8018534354988205</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.176655604433734</v>
+        <v>7.176655604433392</v>
       </c>
       <c r="C21">
-        <v>1.386506381793879</v>
+        <v>1.386506381793566</v>
       </c>
       <c r="D21">
-        <v>0.3894907482061853</v>
+        <v>0.3894907482063132</v>
       </c>
       <c r="E21">
-        <v>0.5362827193195301</v>
+        <v>0.536282719319388</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.92273154965687</v>
+        <v>15.92273154965665</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9416753416065831</v>
+        <v>0.9416753416066683</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.942922039900509</v>
+        <v>7.94292203990085</v>
       </c>
       <c r="C22">
-        <v>1.542481279822965</v>
+        <v>1.542481279822937</v>
       </c>
       <c r="D22">
-        <v>0.4288657664003495</v>
+        <v>0.4288657664004916</v>
       </c>
       <c r="E22">
-        <v>0.5913881838191557</v>
+        <v>0.5913881838192196</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.46836315796173</v>
+        <v>17.46836315796213</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.041127641556557</v>
+        <v>1.041127641556514</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.526993095496152</v>
+        <v>7.526993095496437</v>
       </c>
       <c r="C23">
         <v>1.457625834375136</v>
       </c>
       <c r="D23">
-        <v>0.4075364957154193</v>
+        <v>0.4075364957152345</v>
       </c>
       <c r="E23">
-        <v>0.5615127652937204</v>
+        <v>0.5615127652938128</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.63076541036276</v>
+        <v>16.6307654103631</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9871640594025877</v>
+        <v>0.9871640594026729</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.08477255065128</v>
+        <v>6.084772550651167</v>
       </c>
       <c r="C24">
-        <v>1.166852588581946</v>
+        <v>1.166852588581293</v>
       </c>
       <c r="D24">
-        <v>0.332779751572005</v>
+        <v>0.3327797515721898</v>
       </c>
       <c r="E24">
-        <v>0.4572580009073874</v>
+        <v>0.4572580009073945</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.70115536828055</v>
+        <v>13.70115536828081</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7996764721268264</v>
+        <v>0.7996764721268335</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.716612518407771</v>
+        <v>4.716612518407828</v>
       </c>
       <c r="C25">
-        <v>0.8956123012825969</v>
+        <v>0.8956123012817159</v>
       </c>
       <c r="D25">
-        <v>0.2607104815726871</v>
+        <v>0.2607104815724028</v>
       </c>
       <c r="E25">
-        <v>0.3573742334311731</v>
+        <v>0.3573742334310452</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6211786250004252</v>
+        <v>0.6211786250004678</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.806794602774801</v>
+        <v>3.805370059483153</v>
       </c>
       <c r="C2">
-        <v>0.7174306619512549</v>
+        <v>0.7168474242974696</v>
       </c>
       <c r="D2">
-        <v>0.2121432086484987</v>
+        <v>0.2121015855999531</v>
       </c>
       <c r="E2">
-        <v>0.2903808655682241</v>
+        <v>0.2903313589511143</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>8.990671694621625</v>
+        <v>2.948306459891796</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>5.99139415071653</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5020317327500052</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.5019109496853176</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230038168583292</v>
+        <v>3.229115229394381</v>
       </c>
       <c r="C3">
-        <v>0.6052486050155323</v>
+        <v>0.6048400064337045</v>
       </c>
       <c r="D3">
-        <v>0.1810729111805216</v>
+        <v>0.1810452636589588</v>
       </c>
       <c r="E3">
-        <v>0.247648489960568</v>
+        <v>0.2476144183487463</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>7.780000863353507</v>
+        <v>2.543508561639413</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5.19357117987451</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4262598593929496</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.4261802497129352</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.890433841526487</v>
+        <v>2.889758765896829</v>
       </c>
       <c r="C4">
-        <v>0.5394265403093357</v>
+        <v>0.5391083541561557</v>
       </c>
       <c r="D4">
-        <v>0.1626683931455375</v>
+        <v>0.1626476181517944</v>
       </c>
       <c r="E4">
-        <v>0.2223799018932837</v>
+        <v>0.2223534835620455</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>7.06311448073717</v>
+        <v>2.303725572508739</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4.721198410873995</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3815345101185912</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.3814751440923914</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.755067687331291</v>
+        <v>2.754481528339397</v>
       </c>
       <c r="C5">
-        <v>0.5132301069321556</v>
+        <v>0.5129453903591639</v>
       </c>
       <c r="D5">
-        <v>0.1553083649537967</v>
+        <v>0.1552900586371067</v>
       </c>
       <c r="E5">
-        <v>0.2122837221430274</v>
+        <v>0.2122600794520437</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>6.776454136377339</v>
+        <v>2.207823721598487</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4.532325400089263</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.36368061327871</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.3636285117356124</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.732756506052908</v>
+        <v>2.732184457222161</v>
       </c>
       <c r="C6">
-        <v>0.5089143338412612</v>
+        <v>0.5086349925411184</v>
       </c>
       <c r="D6">
-        <v>0.1540939217382657</v>
+        <v>0.1540760077107279</v>
       </c>
       <c r="E6">
-        <v>0.2106182728890644</v>
+        <v>0.210595073185182</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.72915410960573</v>
+        <v>2.191998376781044</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.501161531356615</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3607363503327434</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.3606854025170918</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.888596752910701</v>
+        <v>2.887922921885888</v>
       </c>
       <c r="C7">
-        <v>0.5390708800318578</v>
+        <v>0.5387531579300457</v>
       </c>
       <c r="D7">
-        <v>0.1625686018655728</v>
+        <v>0.1625478613970444</v>
       </c>
       <c r="E7">
-        <v>0.222242979198306</v>
+        <v>0.2222165995586494</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>7.059227731070308</v>
+        <v>2.302425345839538</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>4.718637474271588</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.381292316656058</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.3812330522668503</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.604502085591605</v>
+        <v>3.603265035660797</v>
       </c>
       <c r="C8">
-        <v>0.6780217641567958</v>
+        <v>0.6775028123720688</v>
       </c>
       <c r="D8">
-        <v>0.2012714196416852</v>
+        <v>0.2012350370559943</v>
       </c>
       <c r="E8">
-        <v>0.2754175604941551</v>
+        <v>0.2753738345071923</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>8.566966510467836</v>
+        <v>2.806656388571128</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>5.712166047161389</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.475479533248155</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.4753741858076097</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.158923299328308</v>
+        <v>5.155916398224861</v>
       </c>
       <c r="C9">
-        <v>0.9828437652342359</v>
+        <v>0.9817440409746609</v>
       </c>
       <c r="D9">
-        <v>0.2841339997670929</v>
+        <v>0.2840471626248728</v>
       </c>
       <c r="E9">
-        <v>0.3897741717845449</v>
+        <v>0.3896744049010508</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>11.79943552969488</v>
+        <v>3.886855337351022</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.842535270848572</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.67896375144948</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.6787100728324518</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.457538061418916</v>
+        <v>6.452429441575305</v>
       </c>
       <c r="C10">
-        <v>1.241508987710404</v>
+        <v>1.239759278834214</v>
       </c>
       <c r="D10">
-        <v>0.3522204817758166</v>
+        <v>0.3520710678656371</v>
       </c>
       <c r="E10">
-        <v>0.4843039717189228</v>
+        <v>0.4841327807977081</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>14.46213971146182</v>
+        <v>4.77595007062996</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.597362185951397</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8481951089326571</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.8477580432909946</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.103632958329342</v>
+        <v>7.097238695377939</v>
       </c>
       <c r="C11">
-        <v>1.371722734638979</v>
+        <v>1.369586158597457</v>
       </c>
       <c r="D11">
-        <v>0.3857201770890981</v>
+        <v>0.3855313096378268</v>
       </c>
       <c r="E11">
-        <v>0.531016266390111</v>
+        <v>0.5307989666192157</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>15.7748614858466</v>
+        <v>5.214057320917107</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.46238943610945</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9321896862164039</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.9316371034815063</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.358858400810732</v>
+        <v>7.351907740941385</v>
       </c>
       <c r="C12">
-        <v>1.423454053160754</v>
+        <v>1.421151831299937</v>
       </c>
       <c r="D12">
-        <v>0.3988850671614159</v>
+        <v>0.3986788862760875</v>
       </c>
       <c r="E12">
-        <v>0.5494118543228197</v>
+        <v>0.5491740835596559</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>16.29125249070694</v>
+        <v>5.386357296005428</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.80263896731321</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9653371382062375</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.9647338617566987</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.303369157040606</v>
+        <v>7.296541903697459</v>
       </c>
       <c r="C13">
-        <v>1.412192628294434</v>
+        <v>1.409927063860209</v>
       </c>
       <c r="D13">
-        <v>0.3960261523570239</v>
+        <v>0.3958238232631146</v>
       </c>
       <c r="E13">
-        <v>0.5454151545204127</v>
+        <v>0.5451819499410888</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>16.17908684719652</v>
+        <v>5.348933855489292</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.72873476924411</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9581319737152683</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.9575399758088139</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.124400421408666</v>
+        <v>7.117961946526293</v>
       </c>
       <c r="C14">
-        <v>1.375925770163605</v>
+        <v>1.373775996009527</v>
       </c>
       <c r="D14">
-        <v>0.3867928411965096</v>
+        <v>0.3866026030399183</v>
       </c>
       <c r="E14">
-        <v>0.5325143010699875</v>
+        <v>0.5322953856876396</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>15.81692559335397</v>
+        <v>5.228093365838845</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.49010613666115</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9348875341758571</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.9343309381942078</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.016246123240762</v>
+        <v>7.010035873589345</v>
       </c>
       <c r="C15">
-        <v>1.354049030683115</v>
+        <v>1.351967455751634</v>
       </c>
       <c r="D15">
-        <v>0.3812037321863215</v>
+        <v>0.3810205601284622</v>
       </c>
       <c r="E15">
-        <v>0.524710388827657</v>
+        <v>0.5244997925145114</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>15.59777203399949</v>
+        <v>5.154964062074725</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.34570112259456</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9208361639469445</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.9203002564068612</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.41663021010288</v>
+        <v>6.41159732729318</v>
       </c>
       <c r="C16">
-        <v>1.233299529700474</v>
+        <v>1.231572818017924</v>
       </c>
       <c r="D16">
-        <v>0.3500910710401115</v>
+        <v>0.3499439556415638</v>
       </c>
       <c r="E16">
-        <v>0.4813393333615537</v>
+        <v>0.4811708042769141</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>14.37875769266964</v>
+        <v>4.748117295774108</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.542413879095022</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8428727460634278</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.8424424112405262</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.064545375529008</v>
+        <v>6.060137754257198</v>
       </c>
       <c r="C17">
-        <v>1.162811155176314</v>
+        <v>1.161275340926323</v>
       </c>
       <c r="D17">
-        <v>0.3317224789708177</v>
+        <v>0.3315942219197296</v>
       </c>
       <c r="E17">
-        <v>0.4557884046008951</v>
+        <v>0.4556416077381868</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.65978638027471</v>
+        <v>4.508101792913493</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.068603018444492</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7970424489320891</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.7966673473037531</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.867047620280687</v>
+        <v>5.862970394483284</v>
       </c>
       <c r="C18">
-        <v>1.12340184961559</v>
+        <v>1.121967735476545</v>
       </c>
       <c r="D18">
-        <v>0.3213864364420544</v>
+        <v>0.3212680562946133</v>
       </c>
       <c r="E18">
-        <v>0.4414283087514121</v>
+        <v>0.441292815826472</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>13.25544617480259</v>
+        <v>4.373101162314441</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>8.802129299211543</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.7713167106068823</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.770970546303765</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.800973797499068</v>
+        <v>5.797003926395462</v>
       </c>
       <c r="C19">
-        <v>1.110237842732943</v>
+        <v>1.10883691103632</v>
       </c>
       <c r="D19">
-        <v>0.3179232511392058</v>
+        <v>0.3178080666076255</v>
       </c>
       <c r="E19">
-        <v>0.4366196023672302</v>
+        <v>0.4364877549820889</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>13.12000389814392</v>
+        <v>4.327876785550728</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>8.712867147049593</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7627070793818547</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.762370279398489</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.101490656061117</v>
+        <v>6.097019627359373</v>
       </c>
       <c r="C20">
-        <v>1.170193641924527</v>
+        <v>1.168638379159546</v>
       </c>
       <c r="D20">
-        <v>0.3336534209889948</v>
+        <v>0.3335232613068513</v>
       </c>
       <c r="E20">
-        <v>0.4584724900474413</v>
+        <v>0.45832350940411</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>13.7353416090024</v>
+        <v>4.533326564700417</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.118395811297063</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8018534354988205</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.8014727604059786</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.176655604433392</v>
+        <v>7.170105059119919</v>
       </c>
       <c r="C21">
-        <v>1.386506381793566</v>
+        <v>1.3843231808128</v>
       </c>
       <c r="D21">
-        <v>0.3894907482063132</v>
+        <v>0.3892970315758362</v>
       </c>
       <c r="E21">
-        <v>0.536282719319388</v>
+        <v>0.5360596999928546</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>15.92273154965665</v>
+        <v>5.2633982627504</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.5598228068439</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9416753416066683</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9411085609933139</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.94292203990085</v>
+        <v>7.934586473629849</v>
       </c>
       <c r="C22">
-        <v>1.542481279822937</v>
+        <v>1.539770531492081</v>
       </c>
       <c r="D22">
-        <v>0.4288657664004916</v>
+        <v>0.4286159275421255</v>
       </c>
       <c r="E22">
-        <v>0.5913881838192196</v>
+        <v>0.5910982055486755</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>17.46836315796213</v>
+        <v>5.779026935401419</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>11.57815730291242</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.041127641556514</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.040396493475825</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.526993095496437</v>
+        <v>7.519660050083019</v>
       </c>
       <c r="C23">
-        <v>1.457625834375136</v>
+        <v>1.455210306407594</v>
       </c>
       <c r="D23">
-        <v>0.4075364957152345</v>
+        <v>0.4073183384901853</v>
       </c>
       <c r="E23">
-        <v>0.5615127652938128</v>
+        <v>0.5612607544751285</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>16.6307654103631</v>
+        <v>5.499627211774452</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>11.02633287474384</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9871640594026729</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9865257121100086</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.084772550651167</v>
+        <v>6.080330277524183</v>
       </c>
       <c r="C24">
-        <v>1.166852588581293</v>
+        <v>1.165306143155789</v>
       </c>
       <c r="D24">
-        <v>0.3327797515721898</v>
+        <v>0.3326504550216924</v>
       </c>
       <c r="E24">
-        <v>0.4572580009073945</v>
+        <v>0.4571100111886892</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>13.70115536828081</v>
+        <v>4.521913249373426</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.095866246364722</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7996764721268335</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.7992983254158261</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.716612518407828</v>
+        <v>4.714187701093692</v>
       </c>
       <c r="C25">
-        <v>0.8956123012817159</v>
+        <v>0.8946985622900172</v>
       </c>
       <c r="D25">
-        <v>0.2607104815724028</v>
+        <v>0.2606404837834191</v>
       </c>
       <c r="E25">
-        <v>0.3573742334310452</v>
+        <v>0.3572933033858376</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>10.88488940993625</v>
+        <v>3.581341268716528</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.23978484991548</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,9 +1385,12 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6211786250004678</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.6209743854815528</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.805370059483153</v>
+        <v>9.266775690814029</v>
       </c>
       <c r="C2">
-        <v>0.7168474242974696</v>
+        <v>3.144266531485641</v>
       </c>
       <c r="D2">
-        <v>0.2121015855999531</v>
+        <v>0.5631323634297587</v>
       </c>
       <c r="E2">
-        <v>0.2903313589511143</v>
+        <v>0.2520538136377937</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.948306459891796</v>
+        <v>0.0007869680559740036</v>
       </c>
       <c r="H2">
-        <v>5.99139415071653</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1498046129719128</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.5019109496853176</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>4.096119105684068</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.229115229394381</v>
+        <v>7.985086918968307</v>
       </c>
       <c r="C3">
-        <v>0.6048400064337045</v>
+        <v>2.701031764318145</v>
       </c>
       <c r="D3">
-        <v>0.1810452636589588</v>
+        <v>0.5016087734710197</v>
       </c>
       <c r="E3">
-        <v>0.2476144183487463</v>
+        <v>0.2228981711994962</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.543508561639413</v>
+        <v>0.0008078629910141055</v>
       </c>
       <c r="H3">
-        <v>5.19357117987451</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.131257933777718</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4261802497129352</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>3.820557792220683</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.889758765896829</v>
+        <v>7.238254112233676</v>
       </c>
       <c r="C4">
-        <v>0.5391083541561557</v>
+        <v>2.443263006371581</v>
       </c>
       <c r="D4">
-        <v>0.1626476181517944</v>
+        <v>0.4661980500961818</v>
       </c>
       <c r="E4">
-        <v>0.2223534835620455</v>
+        <v>0.2060954822295926</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.303725572508739</v>
+        <v>0.0008207104957184986</v>
       </c>
       <c r="H4">
-        <v>4.721198410873995</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1205535386048879</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3814751440923914</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.659440703341261</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.754481528339397</v>
+        <v>6.942209774663013</v>
       </c>
       <c r="C5">
-        <v>0.5129453903591639</v>
+        <v>2.341182842278215</v>
       </c>
       <c r="D5">
-        <v>0.1552900586371067</v>
+        <v>0.4522650247237436</v>
       </c>
       <c r="E5">
-        <v>0.2122600794520437</v>
+        <v>0.1994783062684036</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.207823721598487</v>
+        <v>0.0008259669896367012</v>
       </c>
       <c r="H5">
-        <v>4.532325400089263</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1163337062614644</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3636285117356124</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.59547108499126</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.732184457222161</v>
+        <v>6.893506777162202</v>
       </c>
       <c r="C6">
-        <v>0.5086349925411184</v>
+        <v>2.324394695354897</v>
       </c>
       <c r="D6">
-        <v>0.1540760077107279</v>
+        <v>0.4499789781953041</v>
       </c>
       <c r="E6">
-        <v>0.210595073185182</v>
+        <v>0.1983922366744011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.191998376781044</v>
+        <v>0.0008268415218356792</v>
       </c>
       <c r="H6">
-        <v>4.501161531356615</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1156408435845862</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3606854025170918</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.584941965410025</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.887922921885888</v>
+        <v>7.234230089585026</v>
       </c>
       <c r="C7">
-        <v>0.5387531579300457</v>
+        <v>2.44187509390656</v>
       </c>
       <c r="D7">
-        <v>0.1625478613970444</v>
+        <v>0.466008246973189</v>
       </c>
       <c r="E7">
-        <v>0.2222165995586494</v>
+        <v>0.2060053639212924</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.302425345839538</v>
+        <v>0.0008207812819996621</v>
       </c>
       <c r="H7">
-        <v>4.718637474271588</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1204960872176528</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3812330522668503</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.658571566200379</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.603265035660797</v>
+        <v>8.815322401183835</v>
       </c>
       <c r="C8">
-        <v>0.6775028123720688</v>
+        <v>2.988018187541115</v>
       </c>
       <c r="D8">
-        <v>0.2012350370559943</v>
+        <v>0.5413629624900409</v>
       </c>
       <c r="E8">
-        <v>0.2753738345071923</v>
+        <v>0.2417418988326645</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.806656388571128</v>
+        <v>0.0007941799274637175</v>
       </c>
       <c r="H8">
-        <v>5.712166047161389</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1432481317103012</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4753741858076097</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>3.999199646404037</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.155916398224861</v>
+        <v>12.3403367722301</v>
       </c>
       <c r="C9">
-        <v>0.9817440409746609</v>
+        <v>4.211849291384112</v>
       </c>
       <c r="D9">
-        <v>0.2840471626248728</v>
+        <v>0.7136834583072016</v>
       </c>
       <c r="E9">
-        <v>0.3896744049010508</v>
+        <v>0.3232891330961891</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.886855337351022</v>
+        <v>0.0007411825111205977</v>
       </c>
       <c r="H9">
-        <v>7.842535270848572</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1950427332560167</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.6787100728324518</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.751447530066002</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.452429441575305</v>
+        <v>15.40023487474684</v>
       </c>
       <c r="C10">
-        <v>1.239759278834214</v>
+        <v>5.281757578461452</v>
       </c>
       <c r="D10">
-        <v>0.3520710678656371</v>
+        <v>0.8668192713099074</v>
       </c>
       <c r="E10">
-        <v>0.4841327807977081</v>
+        <v>0.3956959172767398</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.77595007062996</v>
+        <v>0.0006998000325118533</v>
       </c>
       <c r="H10">
-        <v>9.597362185951397</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.240995746929471</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.8477580432909946</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.395250740453264</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.097238695377939</v>
+        <v>16.97351856027854</v>
       </c>
       <c r="C11">
-        <v>1.369586158597457</v>
+        <v>5.83483548951699</v>
       </c>
       <c r="D11">
-        <v>0.3855313096378268</v>
+        <v>0.9466014210684364</v>
       </c>
       <c r="E11">
-        <v>0.5307989666192157</v>
+        <v>0.433425414815062</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.214057320917107</v>
+        <v>0.0006797172540396115</v>
       </c>
       <c r="H11">
-        <v>10.46238943610945</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2649498944017807</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.9316371034815063</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.722631389177309</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.351907740941385</v>
+        <v>17.60649442945396</v>
       </c>
       <c r="C12">
-        <v>1.421151831299937</v>
+        <v>6.05795643174099</v>
       </c>
       <c r="D12">
-        <v>0.3986788862760875</v>
+        <v>0.9788832028313834</v>
       </c>
       <c r="E12">
-        <v>0.5491740835596559</v>
+        <v>0.448695420961208</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.386357296005428</v>
+        <v>0.0006718294094408225</v>
       </c>
       <c r="H12">
-        <v>10.80263896731321</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2746484239013824</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.9647338617566987</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>5.853615203003301</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.296541903697459</v>
+        <v>17.46827220791533</v>
       </c>
       <c r="C13">
-        <v>1.409927063860209</v>
+        <v>6.009203589222238</v>
       </c>
       <c r="D13">
-        <v>0.3958238232631146</v>
+        <v>0.9718251391454089</v>
       </c>
       <c r="E13">
-        <v>0.5451819499410888</v>
+        <v>0.4453565729837763</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.348933855489292</v>
+        <v>0.0006735430268825788</v>
       </c>
       <c r="H13">
-        <v>10.72873476924411</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2725275854577802</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.9575399758088139</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>5.825048800575303</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.117961946526293</v>
+        <v>17.02476258013746</v>
       </c>
       <c r="C14">
-        <v>1.373775996009527</v>
+        <v>5.852885670852743</v>
       </c>
       <c r="D14">
-        <v>0.3866026030399183</v>
+        <v>0.949211041863208</v>
       </c>
       <c r="E14">
-        <v>0.5322953856876396</v>
+        <v>0.4346597294982573</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.228093365838845</v>
+        <v>0.0006790747721594245</v>
       </c>
       <c r="H14">
-        <v>10.49010613666115</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2657337609419841</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.9343309381942078</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.733251289538316</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.010035873589345</v>
+        <v>16.75837743802788</v>
       </c>
       <c r="C15">
-        <v>1.351967455751634</v>
+        <v>5.759079157904125</v>
       </c>
       <c r="D15">
-        <v>0.3810205601284622</v>
+        <v>0.9356527127947629</v>
       </c>
       <c r="E15">
-        <v>0.5244997925145114</v>
+        <v>0.4282469937600766</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.154964062074725</v>
+        <v>0.0006824223181770628</v>
       </c>
       <c r="H15">
-        <v>10.34570112259456</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2616614387947322</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.9203002564068612</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.678014990846066</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.41159732729318</v>
+        <v>15.30189372807649</v>
       </c>
       <c r="C16">
-        <v>1.231572818017924</v>
+        <v>5.247255498197205</v>
       </c>
       <c r="D16">
-        <v>0.3499439556415638</v>
+        <v>0.8618546339147883</v>
       </c>
       <c r="E16">
-        <v>0.4811708042769141</v>
+        <v>0.3933484269709666</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.748117295774108</v>
+        <v>0.0007010795924408214</v>
       </c>
       <c r="H16">
-        <v>9.542413879095022</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2395056871906718</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.8424424112405262</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.374702847296476</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.060137754257198</v>
+        <v>14.46115331820408</v>
       </c>
       <c r="C17">
-        <v>1.161275340926323</v>
+        <v>4.952612656712063</v>
       </c>
       <c r="D17">
-        <v>0.3315942219197296</v>
+        <v>0.8195225189193707</v>
       </c>
       <c r="E17">
-        <v>0.4556416077381868</v>
+        <v>0.3733328719872446</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.508101792913493</v>
+        <v>0.000712145149059074</v>
       </c>
       <c r="H17">
-        <v>9.068603018444492</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2268020116029419</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.7966673473037531</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.198638296659453</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.862970394483284</v>
+        <v>13.99376013284666</v>
       </c>
       <c r="C18">
-        <v>1.121967735476545</v>
+        <v>4.789058297090833</v>
       </c>
       <c r="D18">
-        <v>0.3212680562946133</v>
+        <v>0.7960776267159702</v>
       </c>
       <c r="E18">
-        <v>0.441292815826472</v>
+        <v>0.3622479576538922</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.373101162314441</v>
+        <v>0.0007183995319313685</v>
       </c>
       <c r="H18">
-        <v>8.802129299211543</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2197671406566286</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.770970546303765</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>5.100456013738039</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.797003926395462</v>
+        <v>13.83803153733243</v>
       </c>
       <c r="C19">
-        <v>1.10883691103632</v>
+        <v>4.734602906926398</v>
       </c>
       <c r="D19">
-        <v>0.3178080666076255</v>
+        <v>0.7882806482231501</v>
       </c>
       <c r="E19">
-        <v>0.4364877549820889</v>
+        <v>0.3585614898022698</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.327876785550728</v>
+        <v>0.0007205005713111775</v>
       </c>
       <c r="H19">
-        <v>8.712867147049593</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2174276350390016</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.762370279398489</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>5.067695759519211</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.097019627359373</v>
+        <v>14.54891367742368</v>
       </c>
       <c r="C20">
-        <v>1.168638379159546</v>
+        <v>4.983342030730455</v>
       </c>
       <c r="D20">
-        <v>0.3335232613068513</v>
+        <v>0.8239318450219457</v>
       </c>
       <c r="E20">
-        <v>0.45832350940411</v>
+        <v>0.375417646945742</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.533326564700417</v>
+        <v>0.0007109791919686067</v>
       </c>
       <c r="H20">
-        <v>9.118395811297063</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.228125120316534</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.8014727604059786</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.21704961007913</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.170105059119919</v>
+        <v>17.15390316278683</v>
       </c>
       <c r="C21">
-        <v>1.3843231808128</v>
+        <v>5.89838429483973</v>
       </c>
       <c r="D21">
-        <v>0.3892970315758362</v>
+        <v>0.955790580102331</v>
       </c>
       <c r="E21">
-        <v>0.5360596999928546</v>
+        <v>0.4377718311680638</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.2633982627504</v>
+        <v>0.0006774587362561843</v>
       </c>
       <c r="H21">
-        <v>10.5598228068439</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2677102076650328</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.9411085609933139</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.760002305237151</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.934586473629849</v>
+        <v>19.08389264382561</v>
       </c>
       <c r="C22">
-        <v>1.539770531492081</v>
+        <v>6.580133617960769</v>
       </c>
       <c r="D22">
-        <v>0.4286159275421255</v>
+        <v>1.054621387675894</v>
       </c>
       <c r="E22">
-        <v>0.5910982055486755</v>
+        <v>0.484533033710207</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.779026935401419</v>
+        <v>0.0006538046416368379</v>
       </c>
       <c r="H22">
-        <v>11.57815730291242</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2974212071716948</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.040396493475825</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.157658122538351</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.519660050083019</v>
+        <v>18.0274678553518</v>
       </c>
       <c r="C23">
-        <v>1.455210306407594</v>
+        <v>6.206544558023779</v>
       </c>
       <c r="D23">
-        <v>0.4073183384901853</v>
+        <v>1.000409112150976</v>
       </c>
       <c r="E23">
-        <v>0.5612607544751285</v>
+        <v>0.4588791958316918</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.499627211774452</v>
+        <v>0.0006666399219594017</v>
       </c>
       <c r="H23">
-        <v>11.02633287474384</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2811179659803855</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.9865257121100086</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>5.94049153284891</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.080330277524183</v>
+        <v>14.50918825263375</v>
       </c>
       <c r="C24">
-        <v>1.165306143155789</v>
+        <v>4.969431367547941</v>
       </c>
       <c r="D24">
-        <v>0.3326504550216924</v>
+        <v>0.8219356501154778</v>
       </c>
       <c r="E24">
-        <v>0.4571100111886892</v>
+        <v>0.374473824439697</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.521913249373426</v>
+        <v>0.0007115066485584711</v>
       </c>
       <c r="H24">
-        <v>9.095866246364722</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2275261187215705</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.7992983254158261</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.208716525015916</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.714187701093692</v>
+        <v>11.32366101659932</v>
       </c>
       <c r="C25">
-        <v>0.8946985622900172</v>
+        <v>3.857957079840389</v>
       </c>
       <c r="D25">
-        <v>0.2606404837834191</v>
+        <v>0.6634755964639396</v>
       </c>
       <c r="E25">
-        <v>0.3572933033858376</v>
+        <v>0.2995432808574421</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.581341268716528</v>
+        <v>0.0007557705431173926</v>
       </c>
       <c r="H25">
-        <v>7.23978484991548</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.17996993427316</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.6209743854815528</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.535586578725713</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>9.266775690814029</v>
+        <v>3.467356493638874</v>
       </c>
       <c r="C2">
-        <v>3.144266531485641</v>
+        <v>0.9123435675617486</v>
       </c>
       <c r="D2">
-        <v>0.5631323634297587</v>
+        <v>0.5595235550262316</v>
       </c>
       <c r="E2">
-        <v>0.2520538136377937</v>
+        <v>0.2502243878567398</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007869680559740036</v>
+        <v>0.000796123104744795</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1498046129719128</v>
+        <v>0.1485560772794798</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>4.096119105684068</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.633656742895511</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.985086918968307</v>
+        <v>3.007802639498152</v>
       </c>
       <c r="C3">
-        <v>2.701031764318145</v>
+        <v>0.7928928854634307</v>
       </c>
       <c r="D3">
-        <v>0.5016087734710197</v>
+        <v>0.5031301323802211</v>
       </c>
       <c r="E3">
-        <v>0.2228981711994962</v>
+        <v>0.2236919770782535</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008078629910141055</v>
+        <v>0.0008025697952216205</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.131257933777718</v>
+        <v>0.1318147120966486</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3.820557792220683</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.492181118940522</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.238254112233676</v>
+        <v>2.727326796907562</v>
       </c>
       <c r="C4">
-        <v>2.443263006371581</v>
+        <v>0.7198379659478178</v>
       </c>
       <c r="D4">
-        <v>0.4661980500961818</v>
+        <v>0.4693742284407847</v>
       </c>
       <c r="E4">
-        <v>0.2060954822295926</v>
+        <v>0.2078008183399191</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008207104957184986</v>
+        <v>0.0008066392544407426</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1205535386048879</v>
+        <v>0.1217808155205091</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>3.659440703341261</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.414534120966493</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.942209774663013</v>
+        <v>2.613375667276387</v>
       </c>
       <c r="C5">
-        <v>2.341182842278215</v>
+        <v>0.6901212531932401</v>
       </c>
       <c r="D5">
-        <v>0.4522650247237436</v>
+        <v>0.4558171178449015</v>
       </c>
       <c r="E5">
-        <v>0.1994783062684036</v>
+        <v>0.2014159223060616</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008259669896367012</v>
+        <v>0.0008083265531337641</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1163337062614644</v>
+        <v>0.1177473261021191</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.59547108499126</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.385040341292211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.893506777162202</v>
+        <v>2.59447277652805</v>
       </c>
       <c r="C6">
-        <v>2.324394695354897</v>
+        <v>0.6851895441619149</v>
       </c>
       <c r="D6">
-        <v>0.4499789781953041</v>
+        <v>0.4535774122296061</v>
       </c>
       <c r="E6">
-        <v>0.1983922366744011</v>
+        <v>0.2003609349992672</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008268415218356792</v>
+        <v>0.0008086085051756573</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1156408435845862</v>
+        <v>0.1170807393776627</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.584941965410025</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.380267903020467</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.234230089585026</v>
+        <v>2.725788716797865</v>
       </c>
       <c r="C7">
-        <v>2.44187509390656</v>
+        <v>0.7194370019425946</v>
       </c>
       <c r="D7">
-        <v>0.466008246973189</v>
+        <v>0.4691906134308965</v>
       </c>
       <c r="E7">
-        <v>0.2060053639212924</v>
+        <v>0.2077143536864909</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008207812819996621</v>
+        <v>0.0008066618914088219</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1204960872176528</v>
+        <v>0.1217262021198238</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3.658571566200379</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.414127876718879</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.815322401183835</v>
+        <v>3.308500602217521</v>
       </c>
       <c r="C8">
-        <v>2.988018187541115</v>
+        <v>0.8710853441263566</v>
       </c>
       <c r="D8">
-        <v>0.5413629624900409</v>
+        <v>0.5398860091285655</v>
       </c>
       <c r="E8">
-        <v>0.2417418988326645</v>
+        <v>0.2409869718152251</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007941799274637175</v>
+        <v>0.0007983234797362091</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1432481317103012</v>
+        <v>0.1427287846731105</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3.999199646404037</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.582855986167999</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.3403367722301</v>
+        <v>4.468647265043558</v>
       </c>
       <c r="C9">
-        <v>4.211849291384112</v>
+        <v>1.171697801848552</v>
       </c>
       <c r="D9">
-        <v>0.7136834583072016</v>
+        <v>0.6864137055507626</v>
       </c>
       <c r="E9">
-        <v>0.3232891330961891</v>
+        <v>0.3098857024033848</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007411825111205977</v>
+        <v>0.0007828044774879399</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1950427332560167</v>
+        <v>0.1861736620034407</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>4.751447530066002</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>2.995258454488578</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.40023487474684</v>
+        <v>5.337898825328239</v>
       </c>
       <c r="C10">
-        <v>5.281757578461452</v>
+        <v>1.39600150016912</v>
       </c>
       <c r="D10">
-        <v>0.8668192713099074</v>
+        <v>0.8004092076910752</v>
       </c>
       <c r="E10">
-        <v>0.3956959172767398</v>
+        <v>0.3634697477542659</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006998000325118533</v>
+        <v>0.0007718347126991312</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.240995746929471</v>
+        <v>0.2199514662988378</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>5.395250740453264</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3.360788466146374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.97351856027854</v>
+        <v>5.738588667178703</v>
       </c>
       <c r="C11">
-        <v>5.83483548951699</v>
+        <v>1.499164752910929</v>
       </c>
       <c r="D11">
-        <v>0.9466014210684364</v>
+        <v>0.8540307916675545</v>
       </c>
       <c r="E11">
-        <v>0.433425414815062</v>
+        <v>0.3886763515592975</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006797172540396115</v>
+        <v>0.000766919320139098</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2649498944017807</v>
+        <v>0.2358432530683103</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>5.722631389177309</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>3.54388690979124</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.60649442945396</v>
+        <v>5.89122330671762</v>
       </c>
       <c r="C12">
-        <v>6.05795643174099</v>
+        <v>1.538426931677748</v>
       </c>
       <c r="D12">
-        <v>0.9788832028313834</v>
+        <v>0.8746257977952894</v>
       </c>
       <c r="E12">
-        <v>0.448695420961208</v>
+        <v>0.3983584514549392</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006718294094408225</v>
+        <v>0.0007650670043706123</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2746484239013824</v>
+        <v>0.2419481959132526</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>5.853615203003301</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3.61594487053145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46827220791533</v>
+        <v>5.858308095045004</v>
       </c>
       <c r="C13">
-        <v>6.009203589222238</v>
+        <v>1.529961786857427</v>
       </c>
       <c r="D13">
-        <v>0.9718251391454089</v>
+        <v>0.8701767946135703</v>
       </c>
       <c r="E13">
-        <v>0.4453565729837763</v>
+        <v>0.3962668500771116</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006735430268825788</v>
+        <v>0.0007654655612366246</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2725275854577802</v>
+        <v>0.2406293186766248</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>5.825048800575303</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3.600299592086344</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.02476258013746</v>
+        <v>5.751127040718245</v>
       </c>
       <c r="C14">
-        <v>5.852885670852743</v>
+        <v>1.502390725853559</v>
       </c>
       <c r="D14">
-        <v>0.949211041863208</v>
+        <v>0.8557191290831554</v>
       </c>
       <c r="E14">
-        <v>0.4346597294982573</v>
+        <v>0.3894700529983126</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006790747721594245</v>
+        <v>0.0007667667583936564</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2657337609419841</v>
+        <v>0.2363436952495022</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>5.733251289538316</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.54975873002769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.75837743802788</v>
+        <v>5.685597620704016</v>
       </c>
       <c r="C15">
-        <v>5.759079157904125</v>
+        <v>1.485529337230616</v>
       </c>
       <c r="D15">
-        <v>0.9356527127947629</v>
+        <v>0.846902252730473</v>
       </c>
       <c r="E15">
-        <v>0.4282469937600766</v>
+        <v>0.3853251988746322</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006824223181770628</v>
+        <v>0.0007675649018952806</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2616614387947322</v>
+        <v>0.2337303275604228</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>5.678014990846066</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.519165173972397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.30189372807649</v>
+        <v>5.311830759540612</v>
       </c>
       <c r="C16">
-        <v>5.247255498197205</v>
+        <v>1.389285066052651</v>
       </c>
       <c r="D16">
-        <v>0.8618546339147883</v>
+        <v>0.7969433980844087</v>
       </c>
       <c r="E16">
-        <v>0.3933484269709666</v>
+        <v>0.3618406018431983</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007010795924408214</v>
+        <v>0.0007721573075402002</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2395056871906718</v>
+        <v>0.2189244332079454</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>5.374702847296476</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.349186189557969</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.46115331820408</v>
+        <v>5.083983246157743</v>
       </c>
       <c r="C17">
-        <v>4.952612656712063</v>
+        <v>1.330554156071628</v>
       </c>
       <c r="D17">
-        <v>0.8195225189193707</v>
+        <v>0.7667715110127347</v>
       </c>
       <c r="E17">
-        <v>0.3733328719872446</v>
+        <v>0.3476581711472306</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.000712145149059074</v>
+        <v>0.0007749925918770794</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2268020116029419</v>
+        <v>0.2099839599033402</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>5.198638296659453</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.24942276854253</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.99376013284666</v>
+        <v>4.953417151709175</v>
       </c>
       <c r="C18">
-        <v>4.789058297090833</v>
+        <v>1.296877421097236</v>
       </c>
       <c r="D18">
-        <v>0.7960776267159702</v>
+        <v>0.7495811412804869</v>
       </c>
       <c r="E18">
-        <v>0.3622479576538922</v>
+        <v>0.3395778725010388</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007183995319313685</v>
+        <v>0.0007766305271032247</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2197671406566286</v>
+        <v>0.2048903980205239</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>5.100456013738039</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.193604260932545</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.83803153733243</v>
+        <v>4.909288979133237</v>
       </c>
       <c r="C19">
-        <v>4.734602906926398</v>
+        <v>1.285491884744374</v>
       </c>
       <c r="D19">
-        <v>0.7882806482231501</v>
+        <v>0.7437878627510202</v>
       </c>
       <c r="E19">
-        <v>0.3585614898022698</v>
+        <v>0.3368547584211399</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007205005713111775</v>
+        <v>0.000777186382125124</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2174276350390016</v>
+        <v>0.2031738535670229</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>5.067695759519211</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.174964758408862</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.54891367742368</v>
+        <v>5.108186726433075</v>
       </c>
       <c r="C20">
-        <v>4.983342030730455</v>
+        <v>1.33679518838494</v>
       </c>
       <c r="D20">
-        <v>0.8239318450219457</v>
+        <v>0.7699661697836007</v>
       </c>
       <c r="E20">
-        <v>0.375417646945742</v>
+        <v>0.3491598197532753</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007109791919686067</v>
+        <v>0.0007746900425310595</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.228125120316534</v>
+        <v>0.210930563339474</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>5.21704961007913</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>3.259878918224047</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.15390316278683</v>
+        <v>5.782582992288951</v>
       </c>
       <c r="C21">
-        <v>5.89838429483973</v>
+        <v>1.510483386857914</v>
       </c>
       <c r="D21">
-        <v>0.955790580102331</v>
+        <v>0.8599575272133393</v>
       </c>
       <c r="E21">
-        <v>0.4377718311680638</v>
+        <v>0.3914625726450609</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006774587362561843</v>
+        <v>0.0007663843346562718</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2677102076650328</v>
+        <v>0.2376000260905045</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>5.760002305237151</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>3.56452731823299</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.08389264382561</v>
+        <v>6.228677703994151</v>
       </c>
       <c r="C22">
-        <v>6.580133617960769</v>
+        <v>1.625163005569959</v>
       </c>
       <c r="D22">
-        <v>1.054621387675894</v>
+        <v>0.9204802945780557</v>
       </c>
       <c r="E22">
-        <v>0.484533033710207</v>
+        <v>0.4199174495148483</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006538046416368379</v>
+        <v>0.0007610078095989134</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2974212071716948</v>
+        <v>0.2555438606708833</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>6.157658122538351</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>3.779669134502342</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.0274678553518</v>
+        <v>5.990047748999814</v>
       </c>
       <c r="C23">
-        <v>6.206544558023779</v>
+        <v>1.563837312828696</v>
       </c>
       <c r="D23">
-        <v>1.000409112150976</v>
+        <v>0.8880088713148098</v>
       </c>
       <c r="E23">
-        <v>0.4588791958316918</v>
+        <v>0.4046503574822466</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006666399219594017</v>
+        <v>0.0007638732468581447</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2811179659803855</v>
+        <v>0.2459157545641659</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>5.94049153284891</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>3.663266646777686</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50918825263375</v>
+        <v>5.097243015396998</v>
       </c>
       <c r="C24">
-        <v>4.969431367547941</v>
+        <v>1.333973344739604</v>
       </c>
       <c r="D24">
-        <v>0.8219356501154778</v>
+        <v>0.7685213817802605</v>
       </c>
       <c r="E24">
-        <v>0.374473824439697</v>
+        <v>0.348480697179113</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007115066485584711</v>
+        <v>0.0007748268003612389</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2275261187215705</v>
+        <v>0.210502460136297</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>5.208716525015916</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>3.255146928690095</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.32366101659932</v>
+        <v>4.152320659408986</v>
       </c>
       <c r="C25">
-        <v>3.857957079840389</v>
+        <v>1.089885308592329</v>
       </c>
       <c r="D25">
-        <v>0.6634755964639396</v>
+        <v>0.6457802130314008</v>
       </c>
       <c r="E25">
-        <v>0.2995432808574421</v>
+        <v>0.2907841122273993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007557705431173926</v>
+        <v>0.0007869210296061535</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.17996993427316</v>
+        <v>0.1741320454409561</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>4.535586578725713</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.873715769730637</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.467356493638874</v>
+        <v>1.499813420424744</v>
       </c>
       <c r="C2">
-        <v>0.9123435675617486</v>
+        <v>0.3201417225299679</v>
       </c>
       <c r="D2">
-        <v>0.5595235550262316</v>
+        <v>0.6567851668096125</v>
       </c>
       <c r="E2">
-        <v>0.2502243878567398</v>
+        <v>0.2679783297317755</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.000796123104744795</v>
+        <v>0.00247545144158739</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1485560772794798</v>
+        <v>0.1395546008024766</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.633656742895511</v>
+        <v>4.353606491903719</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.007802639498152</v>
+        <v>1.366108778815885</v>
       </c>
       <c r="C3">
-        <v>0.7928928854634307</v>
+        <v>0.2836510130846364</v>
       </c>
       <c r="D3">
-        <v>0.5031301323802211</v>
+        <v>0.6466607056188138</v>
       </c>
       <c r="E3">
-        <v>0.2236919770782535</v>
+        <v>0.2629821746456997</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0008025697952216205</v>
+        <v>0.002479536462328296</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1318147120966486</v>
+        <v>0.1362230728056133</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.492181118940522</v>
+        <v>4.371756388375871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.727326796907562</v>
+        <v>1.284229195812884</v>
       </c>
       <c r="C4">
-        <v>0.7198379659478178</v>
+        <v>0.2612170243696426</v>
       </c>
       <c r="D4">
-        <v>0.4693742284407847</v>
+        <v>0.6407968441174603</v>
       </c>
       <c r="E4">
-        <v>0.2078008183399191</v>
+        <v>0.260065007182142</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008066392544407426</v>
+        <v>0.002482176148803917</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1217808155205091</v>
+        <v>0.1342605386821774</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.414534120966493</v>
+        <v>4.386455633701189</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.613375667276387</v>
+        <v>1.250917880320003</v>
       </c>
       <c r="C5">
-        <v>0.6901212531932401</v>
+        <v>0.2520681751275902</v>
       </c>
       <c r="D5">
-        <v>0.4558171178449015</v>
+        <v>0.6384958322543923</v>
       </c>
       <c r="E5">
-        <v>0.2014159223060616</v>
+        <v>0.2589140082089543</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008083265531337641</v>
+        <v>0.002483285009263252</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1177473261021191</v>
+        <v>0.1334816071572646</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.385040341292211</v>
+        <v>4.393336543625423</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.59447277652805</v>
+        <v>1.24538993258642</v>
       </c>
       <c r="C6">
-        <v>0.6851895441619149</v>
+        <v>0.2505486148288298</v>
       </c>
       <c r="D6">
-        <v>0.4535774122296061</v>
+        <v>0.6381190967868804</v>
       </c>
       <c r="E6">
-        <v>0.2003609349992672</v>
+        <v>0.2587251648846021</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008086085051756573</v>
+        <v>0.002483471141074313</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1170807393776627</v>
+        <v>0.1333535216403661</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.380267903020467</v>
+        <v>4.394532827327453</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.725788716797865</v>
+        <v>1.283779722506438</v>
       </c>
       <c r="C7">
-        <v>0.7194370019425946</v>
+        <v>0.2610936669003365</v>
       </c>
       <c r="D7">
-        <v>0.4691906134308965</v>
+        <v>0.6407654534277469</v>
       </c>
       <c r="E7">
-        <v>0.2077143536864909</v>
+        <v>0.260049331569391</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008066618914088219</v>
+        <v>0.002482190968918457</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1217262021198238</v>
+        <v>0.1342499495339595</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.414127876718879</v>
+        <v>4.386544829215808</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.308500602217521</v>
+        <v>1.453667895635874</v>
       </c>
       <c r="C8">
-        <v>0.8710853441263566</v>
+        <v>0.3075658530917735</v>
       </c>
       <c r="D8">
-        <v>0.5398860091285655</v>
+        <v>0.6532210020814944</v>
       </c>
       <c r="E8">
-        <v>0.2409869718152251</v>
+        <v>0.2662243748787176</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007983234797362091</v>
+        <v>0.002476832735769057</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1427287846731105</v>
+        <v>0.1383886157251339</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.582855986167999</v>
+        <v>4.359124820092035</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.468647265043558</v>
+        <v>1.788500980299091</v>
       </c>
       <c r="C9">
-        <v>1.171697801848552</v>
+        <v>0.3984602469055289</v>
       </c>
       <c r="D9">
-        <v>0.6864137055507626</v>
+        <v>0.6804509688379881</v>
       </c>
       <c r="E9">
-        <v>0.3098857024033848</v>
+        <v>0.2795319773607261</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007828044774879399</v>
+        <v>0.002467363437908815</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1861736620034407</v>
+        <v>0.1471668792328913</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.995258454488578</v>
+        <v>4.333707972221987</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.337898825328239</v>
+        <v>2.035519218576781</v>
       </c>
       <c r="C10">
-        <v>1.39600150016912</v>
+        <v>0.4650882445798743</v>
       </c>
       <c r="D10">
-        <v>0.8004092076910752</v>
+        <v>0.7021795208968626</v>
       </c>
       <c r="E10">
-        <v>0.3634697477542659</v>
+        <v>0.2900470319503086</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007718347126991312</v>
+        <v>0.002461032294642033</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2199514662988378</v>
+        <v>0.1540257883277576</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.360788466146374</v>
+        <v>4.332527206724876</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.738588667178703</v>
+        <v>2.148115209504283</v>
       </c>
       <c r="C11">
-        <v>1.499164752910929</v>
+        <v>0.4953650774198763</v>
       </c>
       <c r="D11">
-        <v>0.8540307916675545</v>
+        <v>0.7124415091518017</v>
       </c>
       <c r="E11">
-        <v>0.3886763515592975</v>
+        <v>0.2949925579918045</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000766919320139098</v>
+        <v>0.002458286528881878</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2358432530683103</v>
+        <v>0.1572363134128381</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.54388690979124</v>
+        <v>4.335833861061758</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.89122330671762</v>
+        <v>2.19078439163718</v>
       </c>
       <c r="C12">
-        <v>1.538426931677748</v>
+        <v>0.5068252250595719</v>
       </c>
       <c r="D12">
-        <v>0.8746257977952894</v>
+        <v>0.7163819391728623</v>
       </c>
       <c r="E12">
-        <v>0.3983584514549392</v>
+        <v>0.2968887330727981</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007650670043706123</v>
+        <v>0.002457265978574328</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2419481959132526</v>
+        <v>0.1584651407708719</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.61594487053145</v>
+        <v>4.337642339193508</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.858308095045004</v>
+        <v>2.181593433243734</v>
       </c>
       <c r="C13">
-        <v>1.529961786857427</v>
+        <v>0.5043573064216389</v>
       </c>
       <c r="D13">
-        <v>0.8701767946135703</v>
+        <v>0.7155308735763128</v>
       </c>
       <c r="E13">
-        <v>0.3962668500771116</v>
+        <v>0.2964793151284439</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007654655612366246</v>
+        <v>0.002457484919640294</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2406293186766248</v>
+        <v>0.1581999082505803</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.600299592086344</v>
+        <v>4.337228051279055</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.751127040718245</v>
+        <v>2.151625002585774</v>
       </c>
       <c r="C14">
-        <v>1.502390725853559</v>
+        <v>0.496308013459668</v>
       </c>
       <c r="D14">
-        <v>0.8557191290831554</v>
+        <v>0.7127645988415452</v>
       </c>
       <c r="E14">
-        <v>0.3894700529983126</v>
+        <v>0.2951480877222963</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007667667583936564</v>
+        <v>0.00245820218318812</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2363436952495022</v>
+        <v>0.1573371473748324</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.54975873002769</v>
+        <v>4.335971475560143</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.685597620704016</v>
+        <v>2.133272549906735</v>
       </c>
       <c r="C15">
-        <v>1.485529337230616</v>
+        <v>0.4913769236894154</v>
       </c>
       <c r="D15">
-        <v>0.846902252730473</v>
+        <v>0.7110772694744014</v>
       </c>
       <c r="E15">
-        <v>0.3853251988746322</v>
+        <v>0.2943357241313862</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007675649018952806</v>
+        <v>0.002458644026859331</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2337303275604228</v>
+        <v>0.1568103859491004</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.519165173972397</v>
+        <v>4.33527434267404</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.311830759540612</v>
+        <v>2.028165270515274</v>
       </c>
       <c r="C16">
-        <v>1.389285066052651</v>
+        <v>0.4631088968653785</v>
       </c>
       <c r="D16">
-        <v>0.7969433980844087</v>
+        <v>0.7015164856182707</v>
       </c>
       <c r="E16">
-        <v>0.3618406018431983</v>
+        <v>0.2897271013134386</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007721573075402002</v>
+        <v>0.002461214430879285</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2189244332079454</v>
+        <v>0.1538177979376485</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.349186189557969</v>
+        <v>4.332388762272757</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.083983246157743</v>
+        <v>1.963742561583786</v>
       </c>
       <c r="C17">
-        <v>1.330554156071628</v>
+        <v>0.4457587835137815</v>
       </c>
       <c r="D17">
-        <v>0.7667715110127347</v>
+        <v>0.6957480586275437</v>
       </c>
       <c r="E17">
-        <v>0.3476581711472306</v>
+        <v>0.2869414616099419</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007749925918770794</v>
+        <v>0.002462825616584755</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2099839599033402</v>
+        <v>0.1520051422446045</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.24942276854253</v>
+        <v>4.331605586459943</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.953417151709175</v>
+        <v>1.926709667324587</v>
       </c>
       <c r="C18">
-        <v>1.296877421097236</v>
+        <v>0.4357764109032018</v>
       </c>
       <c r="D18">
-        <v>0.7495811412804869</v>
+        <v>0.6924657408931694</v>
       </c>
       <c r="E18">
-        <v>0.3395778725010388</v>
+        <v>0.2853544944381454</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007766305271032247</v>
+        <v>0.002463764975308674</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2048903980205239</v>
+        <v>0.1509710523624506</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.193604260932545</v>
+        <v>4.331516704858956</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.909288979133237</v>
+        <v>1.914174662491405</v>
       </c>
       <c r="C19">
-        <v>1.285491884744374</v>
+        <v>0.4323960386215049</v>
       </c>
       <c r="D19">
-        <v>0.7437878627510202</v>
+        <v>0.6913605022788829</v>
       </c>
       <c r="E19">
-        <v>0.3368547584211399</v>
+        <v>0.2848197926429279</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.000777186382125124</v>
+        <v>0.002464085201278499</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2031738535670229</v>
+        <v>0.1506223851914399</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.174964758408862</v>
+        <v>4.331548603770983</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.108186726433075</v>
+        <v>1.970598267239836</v>
       </c>
       <c r="C20">
-        <v>1.33679518838494</v>
+        <v>0.4476060505206192</v>
       </c>
       <c r="D20">
-        <v>0.7699661697836007</v>
+        <v>0.6963584393859321</v>
       </c>
       <c r="E20">
-        <v>0.3491598197532753</v>
+        <v>0.2872364177976436</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007746900425310595</v>
+        <v>0.002462652795014251</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.210930563339474</v>
+        <v>0.1521972220956087</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.259878918224047</v>
+        <v>4.331651508833573</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.782582992288951</v>
+        <v>2.160426609318904</v>
       </c>
       <c r="C21">
-        <v>1.510483386857914</v>
+        <v>0.498672425196105</v>
       </c>
       <c r="D21">
-        <v>0.8599575272133393</v>
+        <v>0.7135756421839119</v>
       </c>
       <c r="E21">
-        <v>0.3914625726450609</v>
+        <v>0.2955384653579571</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007663843346562718</v>
+        <v>0.002457990984991166</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2376000260905045</v>
+        <v>0.1575902058001333</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.56452731823299</v>
+        <v>4.336325435270453</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.228677703994151</v>
+        <v>2.284673714840267</v>
       </c>
       <c r="C22">
-        <v>1.625163005569959</v>
+        <v>0.5320177703034688</v>
       </c>
       <c r="D22">
-        <v>0.9204802945780557</v>
+        <v>0.7251454549025027</v>
       </c>
       <c r="E22">
-        <v>0.4199174495148483</v>
+        <v>0.3011008383964295</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007610078095989134</v>
+        <v>0.002455056156001162</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2555438606708833</v>
+        <v>0.1611910573036965</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.779669134502342</v>
+        <v>4.34262445150415</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.990047748999814</v>
+        <v>2.218344242929447</v>
       </c>
       <c r="C23">
-        <v>1.563837312828696</v>
+        <v>0.5142235415702316</v>
       </c>
       <c r="D23">
-        <v>0.8880088713148098</v>
+        <v>0.7189413392204642</v>
       </c>
       <c r="E23">
-        <v>0.4046503574822466</v>
+        <v>0.2981195743667371</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007638732468581447</v>
+        <v>0.002456612320713801</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2459157545641659</v>
+        <v>0.1592622151727454</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.663266646777686</v>
+        <v>4.338964501427142</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.097243015396998</v>
+        <v>1.967498788374996</v>
       </c>
       <c r="C24">
-        <v>1.333973344739604</v>
+        <v>0.4467709246371783</v>
       </c>
       <c r="D24">
-        <v>0.7685213817802605</v>
+        <v>0.6960823802671712</v>
       </c>
       <c r="E24">
-        <v>0.348480697179113</v>
+        <v>0.2871030228416842</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007748268003612389</v>
+        <v>0.002462730886951106</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.210502460136297</v>
+        <v>0.1521103577895389</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.255146928690095</v>
+        <v>4.331629621940493</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.152320659408986</v>
+        <v>1.697740725735741</v>
       </c>
       <c r="C25">
-        <v>1.089885308592329</v>
+        <v>0.3738971273527341</v>
       </c>
       <c r="D25">
-        <v>0.6457802130314008</v>
+        <v>0.6727829641563972</v>
       </c>
       <c r="E25">
-        <v>0.2907841122273993</v>
+        <v>0.2758028668630246</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007869210296061535</v>
+        <v>0.00246981471047742</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1741320454409561</v>
+        <v>0.1447206289294769</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.873715769730637</v>
+        <v>4.337527014933158</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.499813420424744</v>
+        <v>3.467356493638817</v>
       </c>
       <c r="C2">
-        <v>0.3201417225299679</v>
+        <v>0.9123435675615212</v>
       </c>
       <c r="D2">
-        <v>0.6567851668096125</v>
+        <v>0.5595235550261464</v>
       </c>
       <c r="E2">
-        <v>0.2679783297317755</v>
+        <v>0.2502243878567469</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.00247545144158739</v>
+        <v>0.0007961231047460244</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1395546008024766</v>
+        <v>0.1485560772794443</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>4.353606491903719</v>
+        <v>2.633656742895568</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.366108778815885</v>
+        <v>3.007802639497925</v>
       </c>
       <c r="C3">
-        <v>0.2836510130846364</v>
+        <v>0.7928928854632602</v>
       </c>
       <c r="D3">
-        <v>0.6466607056188138</v>
+        <v>0.5031301323801642</v>
       </c>
       <c r="E3">
-        <v>0.2629821746456997</v>
+        <v>0.2236919770782606</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002479536462328296</v>
+        <v>0.000802569795164893</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1362230728056133</v>
+        <v>0.1318147120965989</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>4.371756388375871</v>
+        <v>2.492181118940408</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.284229195812884</v>
+        <v>2.727326796907505</v>
       </c>
       <c r="C4">
-        <v>0.2612170243696426</v>
+        <v>0.7198379659477609</v>
       </c>
       <c r="D4">
-        <v>0.6407968441174603</v>
+        <v>0.4693742284407278</v>
       </c>
       <c r="E4">
-        <v>0.260065007182142</v>
+        <v>0.2078008183398978</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002482176148803917</v>
+        <v>0.0008066392544678304</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1342605386821774</v>
+        <v>0.1217808155205802</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>4.386455633701189</v>
+        <v>2.41453412096655</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.250917880320003</v>
+        <v>2.613375667276387</v>
       </c>
       <c r="C5">
-        <v>0.2520681751275902</v>
+        <v>0.6901212531931264</v>
       </c>
       <c r="D5">
-        <v>0.6384958322543923</v>
+        <v>0.4558171178447594</v>
       </c>
       <c r="E5">
-        <v>0.2589140082089543</v>
+        <v>0.2014159223060545</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002483285009263252</v>
+        <v>0.0008083265531621677</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1334816071572646</v>
+        <v>0.117747326102112</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>4.393336543625423</v>
+        <v>2.385040341292296</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.24538993258642</v>
+        <v>2.594472776527994</v>
       </c>
       <c r="C6">
-        <v>0.2505486148288298</v>
+        <v>0.6851895441621423</v>
       </c>
       <c r="D6">
-        <v>0.6381190967868804</v>
+        <v>0.4535774122295209</v>
       </c>
       <c r="E6">
-        <v>0.2587251648846021</v>
+        <v>0.2003609349992743</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002483471141074313</v>
+        <v>0.000808608505173114</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1333535216403661</v>
+        <v>0.1170807393775846</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>4.394532827327453</v>
+        <v>2.380267903020496</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.283779722506438</v>
+        <v>2.725788716798036</v>
       </c>
       <c r="C7">
-        <v>0.2610936669003365</v>
+        <v>0.7194370019422252</v>
       </c>
       <c r="D7">
-        <v>0.6407654534277469</v>
+        <v>0.4691906134310955</v>
       </c>
       <c r="E7">
-        <v>0.260049331569391</v>
+        <v>0.2077143536864767</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002482190968918457</v>
+        <v>0.0008066618914661115</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1342499495339595</v>
+        <v>0.1217262021198309</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>4.386544829215808</v>
+        <v>2.414127876718908</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.453667895635874</v>
+        <v>3.308500602217521</v>
       </c>
       <c r="C8">
-        <v>0.3075658530917735</v>
+        <v>0.8710853441262429</v>
       </c>
       <c r="D8">
-        <v>0.6532210020814944</v>
+        <v>0.5398860091286224</v>
       </c>
       <c r="E8">
-        <v>0.2662243748787176</v>
+        <v>0.240986971815218</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002476832735769057</v>
+        <v>0.0007983234797074739</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1383886157251339</v>
+        <v>0.1427287846731673</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>4.359124820092035</v>
+        <v>2.582855986167942</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.788500980299091</v>
+        <v>4.468647265043444</v>
       </c>
       <c r="C9">
-        <v>0.3984602469055289</v>
+        <v>1.171697801848552</v>
       </c>
       <c r="D9">
-        <v>0.6804509688379881</v>
+        <v>0.6864137055508195</v>
       </c>
       <c r="E9">
-        <v>0.2795319773607261</v>
+        <v>0.3098857024033634</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002467363437908815</v>
+        <v>0.0007828044774841736</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1471668792328913</v>
+        <v>0.1861736620033412</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>4.333707972221987</v>
+        <v>2.995258454488663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.035519218576781</v>
+        <v>5.337898825328182</v>
       </c>
       <c r="C10">
-        <v>0.4650882445798743</v>
+        <v>1.396001500168836</v>
       </c>
       <c r="D10">
-        <v>0.7021795208968626</v>
+        <v>0.800409207691132</v>
       </c>
       <c r="E10">
-        <v>0.2900470319503086</v>
+        <v>0.363469747754273</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002461032294642033</v>
+        <v>0.0007718347126940417</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1540257883277576</v>
+        <v>0.2199514662988094</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.332527206724876</v>
+        <v>3.360788466146374</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.148115209504283</v>
+        <v>5.738588667178647</v>
       </c>
       <c r="C11">
-        <v>0.4953650774198763</v>
+        <v>1.499164752910815</v>
       </c>
       <c r="D11">
-        <v>0.7124415091518017</v>
+        <v>0.8540307916676397</v>
       </c>
       <c r="E11">
-        <v>0.2949925579918045</v>
+        <v>0.3886763515592904</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002458286528881878</v>
+        <v>0.0007669193201375155</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1572363134128381</v>
+        <v>0.2358432530682251</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>4.335833861061758</v>
+        <v>3.543886909791297</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.19078439163718</v>
+        <v>5.891223306717848</v>
       </c>
       <c r="C12">
-        <v>0.5068252250595719</v>
+        <v>1.538426931677975</v>
       </c>
       <c r="D12">
-        <v>0.7163819391728623</v>
+        <v>0.8746257977954599</v>
       </c>
       <c r="E12">
-        <v>0.2968887330727981</v>
+        <v>0.3983584514549605</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002457265978574328</v>
+        <v>0.0007650670044354953</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1584651407708719</v>
+        <v>0.2419481959131815</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.337642339193508</v>
+        <v>3.615944870531507</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.181593433243734</v>
+        <v>5.858308095045004</v>
       </c>
       <c r="C13">
-        <v>0.5043573064216389</v>
+        <v>1.52996178685737</v>
       </c>
       <c r="D13">
-        <v>0.7155308735763128</v>
+        <v>0.8701767946137409</v>
       </c>
       <c r="E13">
-        <v>0.2964793151284439</v>
+        <v>0.3962668500771116</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002457484919640294</v>
+        <v>0.0007654655612292917</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1581999082505803</v>
+        <v>0.2406293186765964</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>4.337228051279055</v>
+        <v>3.600299592086287</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.151625002585774</v>
+        <v>5.751127040718131</v>
       </c>
       <c r="C14">
-        <v>0.496308013459668</v>
+        <v>1.502390725853616</v>
       </c>
       <c r="D14">
-        <v>0.7127645988415452</v>
+        <v>0.8557191290830701</v>
       </c>
       <c r="E14">
-        <v>0.2951480877222963</v>
+        <v>0.3894700529983339</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.00245820218318812</v>
+        <v>0.0007667667584235214</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1573371473748324</v>
+        <v>0.2363436952494737</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>4.335971475560143</v>
+        <v>3.54975873002769</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.133272549906735</v>
+        <v>5.685597620704243</v>
       </c>
       <c r="C15">
-        <v>0.4913769236894154</v>
+        <v>1.485529337230616</v>
       </c>
       <c r="D15">
-        <v>0.7110772694744014</v>
+        <v>0.846902252730473</v>
       </c>
       <c r="E15">
-        <v>0.2943357241313862</v>
+        <v>0.3853251988746322</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002458644026859331</v>
+        <v>0.0007675649019235725</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1568103859491004</v>
+        <v>0.2337303275603091</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>4.33527434267404</v>
+        <v>3.519165173972397</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.028165270515274</v>
+        <v>5.311830759540669</v>
       </c>
       <c r="C16">
-        <v>0.4631088968653785</v>
+        <v>1.389285066052878</v>
       </c>
       <c r="D16">
-        <v>0.7015164856182707</v>
+        <v>0.7969433980844656</v>
       </c>
       <c r="E16">
-        <v>0.2897271013134386</v>
+        <v>0.3618406018431841</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002461214430879285</v>
+        <v>0.0007721573075049168</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1538177979376485</v>
+        <v>0.2189244332079596</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.332388762272757</v>
+        <v>3.349186189557912</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.963742561583786</v>
+        <v>5.083983246157743</v>
       </c>
       <c r="C17">
-        <v>0.4457587835137815</v>
+        <v>1.330554156071798</v>
       </c>
       <c r="D17">
-        <v>0.6957480586275437</v>
+        <v>0.7667715110126778</v>
       </c>
       <c r="E17">
-        <v>0.2869414616099419</v>
+        <v>0.3476581711472164</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002462825616584755</v>
+        <v>0.0007749925919122584</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1520051422446045</v>
+        <v>0.2099839599034681</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.331605586459943</v>
+        <v>3.249422768542559</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.926709667324587</v>
+        <v>4.953417151709345</v>
       </c>
       <c r="C18">
-        <v>0.4357764109032018</v>
+        <v>1.296877421097292</v>
       </c>
       <c r="D18">
-        <v>0.6924657408931694</v>
+        <v>0.7495811412806006</v>
       </c>
       <c r="E18">
-        <v>0.2853544944381454</v>
+        <v>0.3395778725010388</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002463764975308674</v>
+        <v>0.0007766305270673633</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1509710523624506</v>
+        <v>0.2048903980205807</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>4.331516704858956</v>
+        <v>3.193604260932631</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.914174662491405</v>
+        <v>4.90928897913318</v>
       </c>
       <c r="C19">
-        <v>0.4323960386215049</v>
+        <v>1.285491884744204</v>
       </c>
       <c r="D19">
-        <v>0.6913605022788829</v>
+        <v>0.7437878627509065</v>
       </c>
       <c r="E19">
-        <v>0.2848197926429279</v>
+        <v>0.3368547584211612</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002464085201278499</v>
+        <v>0.0007771863820894978</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1506223851914399</v>
+        <v>0.2031738535670655</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>4.331548603770983</v>
+        <v>3.174964758408834</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.970598267239836</v>
+        <v>5.108186726433132</v>
       </c>
       <c r="C20">
-        <v>0.4476060505206192</v>
+        <v>1.336795188384883</v>
       </c>
       <c r="D20">
-        <v>0.6963584393859321</v>
+        <v>0.7699661697835722</v>
       </c>
       <c r="E20">
-        <v>0.2872364177976436</v>
+        <v>0.3491598197532966</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002462652795014251</v>
+        <v>0.0007746900424766823</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1521972220956087</v>
+        <v>0.2109305633394314</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.331651508833573</v>
+        <v>3.259878918224018</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.160426609318904</v>
+        <v>5.782582992288894</v>
       </c>
       <c r="C21">
-        <v>0.498672425196105</v>
+        <v>1.510483386857686</v>
       </c>
       <c r="D21">
-        <v>0.7135756421839119</v>
+        <v>0.8599575272132824</v>
       </c>
       <c r="E21">
-        <v>0.2955384653579571</v>
+        <v>0.3914625726450893</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002457990984991166</v>
+        <v>0.0007663843346568372</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1575902058001333</v>
+        <v>0.2376000260906039</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.336325435270453</v>
+        <v>3.564527318233047</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.284673714840267</v>
+        <v>6.228677703994094</v>
       </c>
       <c r="C22">
-        <v>0.5320177703034688</v>
+        <v>1.625163005570244</v>
       </c>
       <c r="D22">
-        <v>0.7251454549025027</v>
+        <v>0.9204802945778852</v>
       </c>
       <c r="E22">
-        <v>0.3011008383964295</v>
+        <v>0.419917449514827</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002455056156001162</v>
+        <v>0.0007610078095611766</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1611910573036965</v>
+        <v>0.2555438606709259</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.34262445150415</v>
+        <v>3.779669134502285</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.218344242929447</v>
+        <v>5.9900477489997</v>
       </c>
       <c r="C23">
-        <v>0.5142235415702316</v>
+        <v>1.563837312828639</v>
       </c>
       <c r="D23">
-        <v>0.7189413392204642</v>
+        <v>0.8880088713148098</v>
       </c>
       <c r="E23">
-        <v>0.2981195743667371</v>
+        <v>0.4046503574822609</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002456612320713801</v>
+        <v>0.0007638732468964153</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1592622151727454</v>
+        <v>0.2459157545641233</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.338964501427142</v>
+        <v>3.663266646777743</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.967498788374996</v>
+        <v>5.097243015396828</v>
       </c>
       <c r="C24">
-        <v>0.4467709246371783</v>
+        <v>1.333973344739945</v>
       </c>
       <c r="D24">
-        <v>0.6960823802671712</v>
+        <v>0.7685213817802889</v>
       </c>
       <c r="E24">
-        <v>0.2871030228416842</v>
+        <v>0.348480697179113</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002462730886951106</v>
+        <v>0.0007748268004257483</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1521103577895389</v>
+        <v>0.2105024601361833</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.331629621940493</v>
+        <v>3.255146928690152</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.697740725735741</v>
+        <v>4.152320659409156</v>
       </c>
       <c r="C25">
-        <v>0.3738971273527341</v>
+        <v>1.089885308592329</v>
       </c>
       <c r="D25">
-        <v>0.6727829641563972</v>
+        <v>0.645780213031486</v>
       </c>
       <c r="E25">
-        <v>0.2758028668630246</v>
+        <v>0.2907841122273993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.00246981471047742</v>
+        <v>0.0007869210296055984</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1447206289294769</v>
+        <v>0.1741320454408566</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>4.337527014933158</v>
+        <v>2.873715769730552</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.467356493638817</v>
+        <v>3.460304801130349</v>
       </c>
       <c r="C2">
-        <v>0.9123435675615212</v>
+        <v>1.329432584988524</v>
       </c>
       <c r="D2">
-        <v>0.5595235550261464</v>
+        <v>0.5949356991048091</v>
       </c>
       <c r="E2">
-        <v>0.2502243878567469</v>
+        <v>0.2793538986302124</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007961231047460244</v>
+        <v>1.708983934005204</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.696561644193295E-05</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0007935854392036035</v>
       </c>
       <c r="J2">
-        <v>0.1485560772794443</v>
+        <v>1.01093471463318</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7418382199716973</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1758020227626389</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,45 +466,51 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.633656742895568</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.7616746703971842</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.007802639497925</v>
+        <v>3.011562133848884</v>
       </c>
       <c r="C3">
-        <v>0.7928928854632602</v>
+        <v>1.153926657344982</v>
       </c>
       <c r="D3">
-        <v>0.5031301323801642</v>
+        <v>0.5319063391921475</v>
       </c>
       <c r="E3">
-        <v>0.2236919770782606</v>
+        <v>0.2466652929125885</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000802569795164893</v>
+        <v>1.544955111527088</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0007158934025950359</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0004180613145168266</v>
       </c>
       <c r="J3">
-        <v>0.1318147120965989</v>
+        <v>0.9376701561377558</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6958838382032511</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1526584458037661</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,45 +519,51 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.492181118940408</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.794993556353992</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.727326796907505</v>
+        <v>2.736023170163548</v>
       </c>
       <c r="C4">
-        <v>0.7198379659477609</v>
+        <v>1.047149626377688</v>
       </c>
       <c r="D4">
-        <v>0.4693742284407278</v>
+        <v>0.4934401089306846</v>
       </c>
       <c r="E4">
-        <v>0.2078008183398978</v>
+        <v>0.2266782789654584</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008066392544678304</v>
+        <v>1.445217070351134</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00168873601760211</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0006153206792669508</v>
       </c>
       <c r="J4">
-        <v>0.1217808155205802</v>
+        <v>0.8932518465050805</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.6679958962651682</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1385869028395064</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,45 +572,51 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.41453412096655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8159276630296671</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.613375667276387</v>
+        <v>2.62174296256461</v>
       </c>
       <c r="C5">
-        <v>0.6901212531931264</v>
+        <v>1.004571861280965</v>
       </c>
       <c r="D5">
-        <v>0.4558171178447594</v>
+        <v>0.4777998102530603</v>
       </c>
       <c r="E5">
-        <v>0.2014159223060545</v>
+        <v>0.2185379516321859</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008083265531621677</v>
+        <v>1.403144066436511</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002216324407582348</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0008650419854068225</v>
       </c>
       <c r="J5">
-        <v>0.117747326102112</v>
+        <v>0.8744507272872397</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.655766074346019</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1328714116757439</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,45 +625,51 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.385040341292296</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.824403678267924</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.594472776527994</v>
+        <v>2.600371567507011</v>
       </c>
       <c r="C6">
-        <v>0.6851895441621423</v>
+        <v>0.9983949681038666</v>
       </c>
       <c r="D6">
-        <v>0.4535774122295209</v>
+        <v>0.4751885475365896</v>
       </c>
       <c r="E6">
-        <v>0.2003609349992743</v>
+        <v>0.2171740414220551</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000808608505173114</v>
+        <v>1.394166786240476</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002314743351289561</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.001004341100513173</v>
       </c>
       <c r="J6">
-        <v>0.1170807393775846</v>
+        <v>0.8703262851835234</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6525956579080585</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.131912024464377</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,45 +678,51 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.380267903020496</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8256139898081833</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.725788716798036</v>
+        <v>2.727921828120657</v>
       </c>
       <c r="C7">
-        <v>0.7194370019422252</v>
+        <v>1.048985953127215</v>
       </c>
       <c r="D7">
-        <v>0.4691906134310955</v>
+        <v>0.4931828826631488</v>
       </c>
       <c r="E7">
-        <v>0.2077143536864767</v>
+        <v>0.2265328332237502</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0008066618914661115</v>
+        <v>1.439166714316713</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.001702778036042796</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0008514789498592634</v>
       </c>
       <c r="J7">
-        <v>0.1217262021198309</v>
+        <v>0.8902360241543192</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6647018472025294</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1384766880461825</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,45 +731,51 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.414127876718908</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8154993599122511</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.308500602217521</v>
+        <v>3.296754183247629</v>
       </c>
       <c r="C8">
-        <v>0.8710853441262429</v>
+        <v>1.271909267456408</v>
       </c>
       <c r="D8">
-        <v>0.5398860091286224</v>
+        <v>0.5730868720522437</v>
       </c>
       <c r="E8">
-        <v>0.240986971815218</v>
+        <v>0.2680135366411207</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007983234797074739</v>
+        <v>1.644896673815538</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0001428098049642834</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0008375800997661997</v>
       </c>
       <c r="J8">
-        <v>0.1427287846731673</v>
+        <v>0.9818729810314721</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7217580997435888</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1677428416436229</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,45 +784,51 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.582855986167942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7724144044229425</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.468647265043444</v>
+        <v>4.426083304220185</v>
       </c>
       <c r="C9">
-        <v>1.171697801848552</v>
+        <v>1.714075255755631</v>
       </c>
       <c r="D9">
-        <v>0.6864137055508195</v>
+        <v>0.7322082674910178</v>
       </c>
       <c r="E9">
-        <v>0.3098857024033634</v>
+        <v>0.3503773588768127</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007828044774841736</v>
+        <v>2.067792278841466</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.001793943266120479</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.004237170099798071</v>
       </c>
       <c r="J9">
-        <v>0.1861736620033412</v>
+        <v>1.171884617460677</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8424823791699794</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2266067069170816</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,45 +837,51 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.995258454488663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.6928055174700456</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.337898825328182</v>
+        <v>5.226613807239858</v>
       </c>
       <c r="C10">
-        <v>1.396001500168836</v>
+        <v>2.029023686807477</v>
       </c>
       <c r="D10">
-        <v>0.800409207691132</v>
+        <v>0.8341407234869109</v>
       </c>
       <c r="E10">
-        <v>0.363469747754273</v>
+        <v>0.3980385914717957</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007718347126940417</v>
+        <v>2.350652536360201</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.006332741824360166</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.009481027061933212</v>
       </c>
       <c r="J10">
-        <v>0.2199514662988094</v>
+        <v>1.298027059758027</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.9192476794359052</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2578989674873782</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,45 +890,51 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.360788466146374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6361564454372629</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.738588667178647</v>
+        <v>5.318199883697332</v>
       </c>
       <c r="C11">
-        <v>1.499164752910815</v>
+        <v>2.011405691457753</v>
       </c>
       <c r="D11">
-        <v>0.8540307916676397</v>
+        <v>0.7367448095166367</v>
       </c>
       <c r="E11">
-        <v>0.3886763515592904</v>
+        <v>0.3081525485764018</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007669193201375155</v>
+        <v>2.184880831377171</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02499106425515407</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01117872513402407</v>
       </c>
       <c r="J11">
-        <v>0.2358432530682251</v>
+        <v>1.209911224951554</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8376413363674473</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.171447020589369</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,45 +943,51 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.543886909791297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6118014633591198</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.891223306717848</v>
+        <v>5.233877940092668</v>
       </c>
       <c r="C12">
-        <v>1.538426931677975</v>
+        <v>1.925647982267151</v>
       </c>
       <c r="D12">
-        <v>0.8746257977954599</v>
+        <v>0.638954303822743</v>
       </c>
       <c r="E12">
-        <v>0.3983584514549605</v>
+        <v>0.2338278349609624</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007650670044354953</v>
+        <v>1.998574419037311</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.06299632600158134</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01100788765855754</v>
       </c>
       <c r="J12">
-        <v>0.2419481959131815</v>
+        <v>1.115232492145935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.7601992648777696</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1112378017956033</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,45 +996,51 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.615944870531507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6131987615148446</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.858308095045004</v>
+        <v>4.999817580111653</v>
       </c>
       <c r="C13">
-        <v>1.52996178685737</v>
+        <v>1.787262111321979</v>
       </c>
       <c r="D13">
-        <v>0.8701767946137409</v>
+        <v>0.5359863591023384</v>
       </c>
       <c r="E13">
-        <v>0.3962668500771116</v>
+        <v>0.1677138723840272</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007654655612292917</v>
+        <v>1.778147060560087</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1174926938323466</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.009698873566364341</v>
       </c>
       <c r="J13">
-        <v>0.2406293186765964</v>
+        <v>1.006144202070516</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.676860168411018</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06801984208103207</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,45 +1049,51 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.600299592086287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6327482954010719</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.751127040718131</v>
+        <v>4.767900607512274</v>
       </c>
       <c r="C14">
-        <v>1.502390725853616</v>
+        <v>1.668568894598877</v>
       </c>
       <c r="D14">
-        <v>0.8557191290830701</v>
+        <v>0.4631895080590311</v>
       </c>
       <c r="E14">
-        <v>0.3894700529983339</v>
+        <v>0.1271915160463202</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007667667584235214</v>
+        <v>1.609529234966146</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1658229774863713</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.008442484197091815</v>
       </c>
       <c r="J14">
-        <v>0.2363436952494737</v>
+        <v>0.9237225432611069</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6160916147786324</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04832215995871181</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,45 +1102,51 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.54975873002769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6555868165458207</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.685597620704243</v>
+        <v>4.677871800711443</v>
       </c>
       <c r="C15">
-        <v>1.485529337230616</v>
+        <v>1.629676880583588</v>
       </c>
       <c r="D15">
-        <v>0.846902252730473</v>
+        <v>0.4437913062424741</v>
       </c>
       <c r="E15">
-        <v>0.3853251988746322</v>
+        <v>0.1176891767930641</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007675649019235725</v>
+        <v>1.559249374192945</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1779432659519671</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.008025946747127755</v>
       </c>
       <c r="J15">
-        <v>0.2337303275603091</v>
+        <v>0.8996312940278983</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5988689793529431</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04469302345617798</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,45 +1155,51 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.519165173972397</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.6639754168647798</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.311830759540669</v>
+        <v>4.383828625787658</v>
       </c>
       <c r="C16">
-        <v>1.389285066052878</v>
+        <v>1.527757360633075</v>
       </c>
       <c r="D16">
-        <v>0.7969433980844656</v>
+        <v>0.4243697759584109</v>
       </c>
       <c r="E16">
-        <v>0.3618406018431841</v>
+        <v>0.1132755462725434</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007721573075049168</v>
+        <v>1.484917543715426</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1637074218271124</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006190816968867807</v>
       </c>
       <c r="J16">
-        <v>0.2189244332079596</v>
+        <v>0.8684485143461984</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5828555011593224</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04209726721085705</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,45 +1208,51 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.349186189557912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6814499002538312</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.083983246157743</v>
+        <v>4.280436623165031</v>
       </c>
       <c r="C17">
-        <v>1.330554156071798</v>
+        <v>1.512082016906561</v>
       </c>
       <c r="D17">
-        <v>0.7667715110126778</v>
+        <v>0.4469709978406797</v>
       </c>
       <c r="E17">
-        <v>0.3476581711472164</v>
+        <v>0.1298995884436422</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007749925919122584</v>
+        <v>1.515789616076376</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1253170336265725</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.005465740352086357</v>
       </c>
       <c r="J17">
-        <v>0.2099839599034681</v>
+        <v>0.8875774159463958</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.6021468565956525</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.04848506051808066</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,45 +1261,51 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.249422768542559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6824866787675354</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.953417151709345</v>
+        <v>4.333683712424829</v>
       </c>
       <c r="C18">
-        <v>1.296877421097292</v>
+        <v>1.56710809603652</v>
       </c>
       <c r="D18">
-        <v>0.7495811412806006</v>
+        <v>0.5116374393703325</v>
       </c>
       <c r="E18">
-        <v>0.3395778725010388</v>
+        <v>0.1724145846975205</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007766305270673633</v>
+        <v>1.647647851051261</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07248891629748044</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.005210389438546237</v>
       </c>
       <c r="J18">
-        <v>0.2048903980205807</v>
+        <v>0.955495997616481</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.657790185575692</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07280321873675177</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,45 +1314,51 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.193604260932631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.673365539324017</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.90928897913318</v>
+        <v>4.497627769356029</v>
       </c>
       <c r="C19">
-        <v>1.285491884744204</v>
+        <v>1.681288162009082</v>
       </c>
       <c r="D19">
-        <v>0.7437878627509065</v>
+        <v>0.6111614163420143</v>
       </c>
       <c r="E19">
-        <v>0.3368547584211612</v>
+        <v>0.2419074571186499</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007771863820894978</v>
+        <v>1.848845148720812</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02788463509878625</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.005857306004381613</v>
       </c>
       <c r="J19">
-        <v>0.2031738535670655</v>
+        <v>1.056249805439165</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7368284519711565</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1242501231884248</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,45 +1367,51 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.174964758408834</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.6640005552289558</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.108186726433132</v>
+        <v>4.993493587844739</v>
       </c>
       <c r="C20">
-        <v>1.336795188384883</v>
+        <v>1.952638083787178</v>
       </c>
       <c r="D20">
-        <v>0.7699661697835722</v>
+        <v>0.8063737136282612</v>
       </c>
       <c r="E20">
-        <v>0.3491598197532966</v>
+        <v>0.3847649688549666</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007746900424766823</v>
+        <v>2.256950238022768</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.004836323280146715</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.008518271560354229</v>
       </c>
       <c r="J20">
-        <v>0.2109305633394314</v>
+        <v>1.255170065353724</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8884871949941129</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2489133269318984</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,45 +1420,51 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.259878918224018</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6496969425628144</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.782582992288894</v>
+        <v>5.660663786001635</v>
       </c>
       <c r="C21">
-        <v>1.510483386857686</v>
+        <v>2.225619752164789</v>
       </c>
       <c r="D21">
-        <v>0.8599575272132824</v>
+        <v>0.9119616940753303</v>
       </c>
       <c r="E21">
-        <v>0.3914625726450893</v>
+        <v>0.443200653448848</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007663843346568372</v>
+        <v>2.533125719084723</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.00980405456521739</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.01372035001412364</v>
       </c>
       <c r="J21">
-        <v>0.2376000260906039</v>
+        <v>1.381263616488184</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9710589197413171</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2939836847641573</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,45 +1473,51 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.564527318233047</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.6088388098119264</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.228677703994094</v>
+        <v>6.092367214236901</v>
       </c>
       <c r="C22">
-        <v>1.625163005570244</v>
+        <v>2.393360403808913</v>
       </c>
       <c r="D22">
-        <v>0.9204802945778852</v>
+        <v>0.9729981526063511</v>
       </c>
       <c r="E22">
-        <v>0.419917449514827</v>
+        <v>0.4747493042653446</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007610078095611766</v>
+        <v>2.706432736738407</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.0138413701043566</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01750339881427543</v>
       </c>
       <c r="J22">
-        <v>0.2555438606709259</v>
+        <v>1.460193294959879</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.023307365185516</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3171644144842958</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,45 +1526,51 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.779669134502285</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5828059229414362</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.9900477489997</v>
+        <v>5.869944959084307</v>
       </c>
       <c r="C23">
-        <v>1.563837312828639</v>
+        <v>2.300679576076448</v>
       </c>
       <c r="D23">
-        <v>0.8880088713148098</v>
+        <v>0.9404170614255918</v>
       </c>
       <c r="E23">
-        <v>0.4046503574822609</v>
+        <v>0.4579261905879832</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007638732468964153</v>
+        <v>2.620332916641843</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.01162508848042976</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.01518726124813785</v>
       </c>
       <c r="J23">
-        <v>0.2459157545641233</v>
+        <v>1.421264664384836</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9990927232119589</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3048047150351323</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,45 +1579,51 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.663266646777743</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5970259871834347</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.097243015396828</v>
+        <v>5.018655345910588</v>
       </c>
       <c r="C24">
-        <v>1.333973344739945</v>
+        <v>1.958869683550404</v>
       </c>
       <c r="D24">
-        <v>0.7685213817802889</v>
+        <v>0.8182543714001156</v>
       </c>
       <c r="E24">
-        <v>0.348480697179113</v>
+        <v>0.3948196215652047</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007748268004257483</v>
+        <v>2.289097532256505</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.004891620970445709</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.008176362751682653</v>
       </c>
       <c r="J24">
-        <v>0.2105024601361833</v>
+        <v>1.271282737199158</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.9032857083195935</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2587279581490662</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,45 +1632,51 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.255146928690152</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6516252206581101</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.152320659409156</v>
+        <v>4.10783537079493</v>
       </c>
       <c r="C25">
-        <v>1.089885308592329</v>
+        <v>1.59765811448159</v>
       </c>
       <c r="D25">
-        <v>0.645780213031486</v>
+        <v>0.6887514282680627</v>
       </c>
       <c r="E25">
-        <v>0.2907841122273993</v>
+        <v>0.3278819928840448</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007869210296055984</v>
+        <v>1.942031854031939</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0007755338558750324</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.003221711607908517</v>
       </c>
       <c r="J25">
-        <v>0.1741320454408566</v>
+        <v>1.114738119231248</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8036820134817404</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2104166258421145</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.873715769730552</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7131193268703488</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_47/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.460304801130349</v>
+        <v>3.193335819827269</v>
       </c>
       <c r="C2">
-        <v>1.329432584988524</v>
+        <v>1.430453879706477</v>
       </c>
       <c r="D2">
-        <v>0.5949356991048091</v>
+        <v>0.5947444356000915</v>
       </c>
       <c r="E2">
-        <v>0.2793538986302124</v>
+        <v>0.2792033576689548</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.708983934005204</v>
+        <v>1.457354809837256</v>
       </c>
       <c r="H2">
-        <v>1.696561644193295E-05</v>
+        <v>2.000700933146859E-05</v>
       </c>
       <c r="I2">
-        <v>0.0007935854392036035</v>
+        <v>0.0009904718684676794</v>
       </c>
       <c r="J2">
-        <v>1.01093471463318</v>
+        <v>0.9395695658599834</v>
       </c>
       <c r="K2">
-        <v>0.7418382199716973</v>
+        <v>0.6082119413809792</v>
       </c>
       <c r="L2">
-        <v>0.1758020227626389</v>
+        <v>0.2864527265632333</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.180391437548888</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1756553532440179</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7616746703971842</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7378833552707142</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.011562133848884</v>
+        <v>2.789231683598018</v>
       </c>
       <c r="C3">
-        <v>1.153926657344982</v>
+        <v>1.239385645582956</v>
       </c>
       <c r="D3">
-        <v>0.5319063391921475</v>
+        <v>0.5326452399155244</v>
       </c>
       <c r="E3">
-        <v>0.2466652929125885</v>
+        <v>0.2472411468858979</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.544955111527088</v>
+        <v>1.328077117136672</v>
       </c>
       <c r="H3">
-        <v>0.0007158934025950359</v>
+        <v>0.0006422201529978633</v>
       </c>
       <c r="I3">
-        <v>0.0004180613145168266</v>
+        <v>0.0005224892439219531</v>
       </c>
       <c r="J3">
-        <v>0.9376701561377558</v>
+        <v>0.8762591966095101</v>
       </c>
       <c r="K3">
-        <v>0.6958838382032511</v>
+        <v>0.5786740255704146</v>
       </c>
       <c r="L3">
-        <v>0.1526584458037661</v>
+        <v>0.2830856764457721</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1621669456620864</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1532043987431564</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.794993556353992</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7665734138750508</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.736023170163548</v>
+        <v>2.54031268442742</v>
       </c>
       <c r="C4">
-        <v>1.047149626377688</v>
+        <v>1.123122714822784</v>
       </c>
       <c r="D4">
-        <v>0.4934401089306846</v>
+        <v>0.4947272069187818</v>
       </c>
       <c r="E4">
-        <v>0.2266782789654584</v>
+        <v>0.2276741281307366</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.445217070351134</v>
+        <v>1.249440251295113</v>
       </c>
       <c r="H4">
-        <v>0.00168873601760211</v>
+        <v>0.001488370394744365</v>
       </c>
       <c r="I4">
-        <v>0.0006153206792669508</v>
+        <v>0.0005577191999392994</v>
       </c>
       <c r="J4">
-        <v>0.8932518465050805</v>
+        <v>0.8373399801597401</v>
       </c>
       <c r="K4">
-        <v>0.6679958962651682</v>
+        <v>0.5606118346910876</v>
       </c>
       <c r="L4">
-        <v>0.1385869028395064</v>
+        <v>0.2807680484248607</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1518239175171772</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1395129871690344</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8159276630296671</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7847582563436859</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.62174296256461</v>
+        <v>2.436851248406413</v>
       </c>
       <c r="C5">
-        <v>1.004571861280965</v>
+        <v>1.076694694766047</v>
       </c>
       <c r="D5">
-        <v>0.4777998102530603</v>
+        <v>0.479307383030573</v>
       </c>
       <c r="E5">
-        <v>0.2185379516321859</v>
+        <v>0.2197005599474551</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.403144066436511</v>
+        <v>1.216098713440999</v>
       </c>
       <c r="H5">
-        <v>0.002216324407582348</v>
+        <v>0.001945435374672844</v>
       </c>
       <c r="I5">
-        <v>0.0008650419854068225</v>
+        <v>0.0007288241054741462</v>
       </c>
       <c r="J5">
-        <v>0.8744507272872397</v>
+        <v>0.8207021194967297</v>
       </c>
       <c r="K5">
-        <v>0.655766074346019</v>
+        <v>0.5524640405250025</v>
       </c>
       <c r="L5">
-        <v>0.1328714116757439</v>
+        <v>0.2794088432369364</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1475657855020636</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1339433234807217</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.824403678267924</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7922906820784998</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.600371567507011</v>
+        <v>2.417453817712442</v>
       </c>
       <c r="C6">
-        <v>0.9983949681038666</v>
+        <v>1.06987421294707</v>
       </c>
       <c r="D6">
-        <v>0.4751885475365896</v>
+        <v>0.4767343139783975</v>
       </c>
       <c r="E6">
-        <v>0.2171740414220551</v>
+        <v>0.2183653769252984</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.394166786240476</v>
+        <v>1.208796485234998</v>
       </c>
       <c r="H6">
-        <v>0.002314743351289561</v>
+        <v>0.002030521692579335</v>
       </c>
       <c r="I6">
-        <v>0.001004341100513173</v>
+        <v>0.000869566960534307</v>
       </c>
       <c r="J6">
-        <v>0.8703262851835234</v>
+        <v>0.8170104986825635</v>
       </c>
       <c r="K6">
-        <v>0.6525956579080585</v>
+        <v>0.5501360961493802</v>
       </c>
       <c r="L6">
-        <v>0.131912024464377</v>
+        <v>0.2787510640977331</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1465644654862643</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1330087401609035</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8256139898081833</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7935333210846842</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.727921828120657</v>
+        <v>2.530025264431288</v>
       </c>
       <c r="C7">
-        <v>1.048985953127215</v>
+        <v>1.122465563053538</v>
       </c>
       <c r="D7">
-        <v>0.4931828826631488</v>
+        <v>0.4944454852783622</v>
       </c>
       <c r="E7">
-        <v>0.2265328332237502</v>
+        <v>0.227509523387468</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.439166714316713</v>
+        <v>1.24866732090652</v>
       </c>
       <c r="H7">
-        <v>0.001702778036042796</v>
+        <v>0.001505213678235418</v>
       </c>
       <c r="I7">
-        <v>0.0008514789498592634</v>
+        <v>0.000835556136524751</v>
       </c>
       <c r="J7">
-        <v>0.8902360241543192</v>
+        <v>0.8245502872402994</v>
       </c>
       <c r="K7">
-        <v>0.6647018472025294</v>
+        <v>0.5565950998155245</v>
       </c>
       <c r="L7">
-        <v>0.1384766880461825</v>
+        <v>0.2790611858558876</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1505101830707503</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1393846441271549</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8154993599122511</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7848499421240795</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.296754183247629</v>
+        <v>3.036499562501206</v>
       </c>
       <c r="C8">
-        <v>1.271909267456408</v>
+        <v>1.359368100229972</v>
       </c>
       <c r="D8">
-        <v>0.5730868720522437</v>
+        <v>0.5731234452301237</v>
       </c>
       <c r="E8">
-        <v>0.2680135366411207</v>
+        <v>0.2680422238451641</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.644896673815538</v>
+        <v>1.421368235494981</v>
       </c>
       <c r="H8">
-        <v>0.0001428098049642834</v>
+        <v>0.0001411775140911509</v>
       </c>
       <c r="I8">
-        <v>0.0008375800997661997</v>
+        <v>0.001073571680312746</v>
       </c>
       <c r="J8">
-        <v>0.9818729810314721</v>
+        <v>0.8812028618291663</v>
       </c>
       <c r="K8">
-        <v>0.7217580997435888</v>
+        <v>0.5903888749109996</v>
       </c>
       <c r="L8">
-        <v>0.1677428416436229</v>
+        <v>0.2822235958007013</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1713019148189154</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1677705342319129</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7724144044229425</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7479230486124333</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.426083304220185</v>
+        <v>4.045858379353433</v>
       </c>
       <c r="C9">
-        <v>1.714075255755631</v>
+        <v>1.838184393208962</v>
       </c>
       <c r="D9">
-        <v>0.7322082674910178</v>
+        <v>0.7296956244464639</v>
       </c>
       <c r="E9">
-        <v>0.3503773588768127</v>
+        <v>0.3483696057601975</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.067792278841466</v>
+        <v>1.759656621509833</v>
       </c>
       <c r="H9">
-        <v>0.001793943266120479</v>
+        <v>0.001445657609355777</v>
       </c>
       <c r="I9">
-        <v>0.004237170099798071</v>
+        <v>0.003946492568377202</v>
       </c>
       <c r="J9">
-        <v>1.171884617460677</v>
+        <v>1.032761931908595</v>
       </c>
       <c r="K9">
-        <v>0.8424823791699794</v>
+        <v>0.6668601501091089</v>
       </c>
       <c r="L9">
-        <v>0.2266067069170816</v>
+        <v>0.2903475920310967</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2221793417535096</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2245590588214625</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6928055174700456</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6800452848764849</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.226613807239858</v>
+        <v>4.741080219780542</v>
       </c>
       <c r="C10">
-        <v>2.029023686807477</v>
+        <v>2.163233696273778</v>
       </c>
       <c r="D10">
-        <v>0.8341407234869109</v>
+        <v>0.8294351308813361</v>
       </c>
       <c r="E10">
-        <v>0.3980385914717957</v>
+        <v>0.394253155180408</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.350652536360201</v>
+        <v>2.012099128013688</v>
       </c>
       <c r="H10">
-        <v>0.006332741824360166</v>
+        <v>0.005179960623879598</v>
       </c>
       <c r="I10">
-        <v>0.009481027061933212</v>
+        <v>0.008078205657335857</v>
       </c>
       <c r="J10">
-        <v>1.298027059758027</v>
+        <v>1.072337342224642</v>
       </c>
       <c r="K10">
-        <v>0.9192476794359052</v>
+        <v>0.7059802714763563</v>
       </c>
       <c r="L10">
-        <v>0.2578989674873782</v>
+        <v>0.2886543274208506</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2569918032053238</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2539250606833718</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.6361564454372629</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6363107832780628</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.318199883697332</v>
+        <v>4.801546053894583</v>
       </c>
       <c r="C11">
-        <v>2.011405691457753</v>
+        <v>2.108190743240414</v>
       </c>
       <c r="D11">
-        <v>0.7367448095166367</v>
+        <v>0.7317781848141749</v>
       </c>
       <c r="E11">
-        <v>0.3081525485764018</v>
+        <v>0.3041936864042825</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.184880831377171</v>
+        <v>1.926398817678717</v>
       </c>
       <c r="H11">
-        <v>0.02499106425515407</v>
+        <v>0.02368070185575633</v>
       </c>
       <c r="I11">
-        <v>0.01117872513402407</v>
+        <v>0.009497069373000322</v>
       </c>
       <c r="J11">
-        <v>1.209911224951554</v>
+        <v>0.8858246892390866</v>
       </c>
       <c r="K11">
-        <v>0.8376413363674473</v>
+        <v>0.626484269671181</v>
       </c>
       <c r="L11">
-        <v>0.171447020589369</v>
+        <v>0.2534457020421215</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2339209299069793</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1672525280271984</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.6118014633591198</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6448613465335278</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.233877940092668</v>
+        <v>4.723908184785614</v>
       </c>
       <c r="C12">
-        <v>1.925647982267151</v>
+        <v>1.998871365856644</v>
       </c>
       <c r="D12">
-        <v>0.638954303822743</v>
+        <v>0.6343319339464699</v>
       </c>
       <c r="E12">
-        <v>0.2338278349609624</v>
+        <v>0.2301674751297611</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.998574419037311</v>
+        <v>1.792747654648593</v>
       </c>
       <c r="H12">
-        <v>0.06299632600158134</v>
+        <v>0.06175669136420936</v>
       </c>
       <c r="I12">
-        <v>0.01100788765855754</v>
+        <v>0.009336031535009504</v>
       </c>
       <c r="J12">
-        <v>1.115232492145935</v>
+        <v>0.7674516592687439</v>
       </c>
       <c r="K12">
-        <v>0.7601992648777696</v>
+        <v>0.5625749684223464</v>
       </c>
       <c r="L12">
-        <v>0.1112378017956033</v>
+        <v>0.2287352971613039</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2109372786479184</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1073330503984664</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.6131987615148446</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6693664778208799</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.999817580111653</v>
+        <v>4.533911785580642</v>
       </c>
       <c r="C13">
-        <v>1.787262111321979</v>
+        <v>1.851548157177717</v>
       </c>
       <c r="D13">
-        <v>0.5359863591023384</v>
+        <v>0.5321440097162053</v>
       </c>
       <c r="E13">
-        <v>0.1677138723840272</v>
+        <v>0.1646870531648901</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.778147060560087</v>
+        <v>1.598296249339455</v>
       </c>
       <c r="H13">
-        <v>0.1174926938323466</v>
+        <v>0.1165040611354868</v>
       </c>
       <c r="I13">
-        <v>0.009698873566364341</v>
+        <v>0.008361977755523498</v>
       </c>
       <c r="J13">
-        <v>1.006144202070516</v>
+        <v>0.7009860588014476</v>
       </c>
       <c r="K13">
-        <v>0.676860168411018</v>
+        <v>0.5045624315864643</v>
       </c>
       <c r="L13">
-        <v>0.06801984208103207</v>
+        <v>0.2090428485463924</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1863737414945348</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06477673126784467</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.6327482954010719</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.7030493389194774</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.767900607512274</v>
+        <v>4.348642058871462</v>
       </c>
       <c r="C14">
-        <v>1.668568894598877</v>
+        <v>1.732316480659563</v>
       </c>
       <c r="D14">
-        <v>0.4631895080590311</v>
+        <v>0.4600234177207483</v>
       </c>
       <c r="E14">
-        <v>0.1271915160463202</v>
+        <v>0.1247045724173503</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.609529234966146</v>
+        <v>1.437863695963728</v>
       </c>
       <c r="H14">
-        <v>0.1658229774863713</v>
+        <v>0.1650591156151364</v>
       </c>
       <c r="I14">
-        <v>0.008442484197091815</v>
+        <v>0.007463784661262629</v>
       </c>
       <c r="J14">
-        <v>0.9237225432611069</v>
+        <v>0.6730774291071384</v>
       </c>
       <c r="K14">
-        <v>0.6160916147786324</v>
+        <v>0.4658854595704014</v>
       </c>
       <c r="L14">
-        <v>0.04832215995871181</v>
+        <v>0.1969947746743053</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1684701505772352</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04565244257838152</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.6555868165458207</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.7305743968777563</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.677871800711443</v>
+        <v>4.277139120653203</v>
       </c>
       <c r="C15">
-        <v>1.629676880583588</v>
+        <v>1.695553610626973</v>
       </c>
       <c r="D15">
-        <v>0.4437913062424741</v>
+        <v>0.4408655874854617</v>
       </c>
       <c r="E15">
-        <v>0.1176891767930641</v>
+        <v>0.1153931572887252</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.559249374192945</v>
+        <v>1.386047843520174</v>
       </c>
       <c r="H15">
-        <v>0.1779432659519671</v>
+        <v>0.177266021156484</v>
       </c>
       <c r="I15">
-        <v>0.008025946747127755</v>
+        <v>0.00721123597535378</v>
       </c>
       <c r="J15">
-        <v>0.8996312940278983</v>
+        <v>0.6730215796845158</v>
       </c>
       <c r="K15">
-        <v>0.5988689793529431</v>
+        <v>0.4562171403510931</v>
       </c>
       <c r="L15">
-        <v>0.04469302345617798</v>
+        <v>0.1944443479758498</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1633345508120883</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04223095219160644</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.6639754168647798</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.7382092447458177</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.383828625787658</v>
+        <v>4.044001691544736</v>
       </c>
       <c r="C16">
-        <v>1.527757360633075</v>
+        <v>1.611714868270724</v>
       </c>
       <c r="D16">
-        <v>0.4243697759584109</v>
+        <v>0.4222098805358883</v>
       </c>
       <c r="E16">
-        <v>0.1132755462725434</v>
+        <v>0.1115871909179909</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.484917543715426</v>
+        <v>1.283366414448238</v>
       </c>
       <c r="H16">
-        <v>0.1637074218271124</v>
+        <v>0.1633356490876707</v>
       </c>
       <c r="I16">
-        <v>0.006190816968867807</v>
+        <v>0.00588700202304171</v>
       </c>
       <c r="J16">
-        <v>0.8684485143461984</v>
+        <v>0.7349048193885181</v>
       </c>
       <c r="K16">
-        <v>0.5828555011593224</v>
+        <v>0.4585080909622619</v>
       </c>
       <c r="L16">
-        <v>0.04209726721085705</v>
+        <v>0.1999632349418938</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1576908018482825</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04031900493804486</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6814499002538312</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.7394975823988261</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.280436623165031</v>
+        <v>3.958558939517218</v>
       </c>
       <c r="C17">
-        <v>1.512082016906561</v>
+        <v>1.60712026154772</v>
       </c>
       <c r="D17">
-        <v>0.4469709978406797</v>
+        <v>0.4450739336896845</v>
       </c>
       <c r="E17">
-        <v>0.1298995884436422</v>
+        <v>0.1284186389512456</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.515789616076376</v>
+        <v>1.293140168388959</v>
       </c>
       <c r="H17">
-        <v>0.1253170336265725</v>
+        <v>0.1250537346981559</v>
       </c>
       <c r="I17">
-        <v>0.005465740352086357</v>
+        <v>0.005356551909040164</v>
       </c>
       <c r="J17">
-        <v>0.8875774159463958</v>
+        <v>0.7896697729279651</v>
       </c>
       <c r="K17">
-        <v>0.6021468565956525</v>
+        <v>0.4795687806240352</v>
       </c>
       <c r="L17">
-        <v>0.04848506051808066</v>
+        <v>0.2105658009604419</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1620531781225054</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04694717995155528</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6824866787675354</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.7283208786281392</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.333683712424829</v>
+        <v>4.001438837992168</v>
       </c>
       <c r="C18">
-        <v>1.56710809603652</v>
+        <v>1.674043400365633</v>
       </c>
       <c r="D18">
-        <v>0.5116374393703325</v>
+        <v>0.509634901398357</v>
       </c>
       <c r="E18">
-        <v>0.1724145846975205</v>
+        <v>0.1708464680817272</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.647647851051261</v>
+        <v>1.396642394960935</v>
       </c>
       <c r="H18">
-        <v>0.07248891629748044</v>
+        <v>0.07222550705894548</v>
       </c>
       <c r="I18">
-        <v>0.005210389438546237</v>
+        <v>0.005067118663984793</v>
       </c>
       <c r="J18">
-        <v>0.955495997616481</v>
+        <v>0.8640421615269247</v>
       </c>
       <c r="K18">
-        <v>0.657790185575692</v>
+        <v>0.5245603686595928</v>
       </c>
       <c r="L18">
-        <v>0.07280321873675177</v>
+        <v>0.2288984817642365</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1772982033365551</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07118889307360021</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.673365539324017</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.7062042788425842</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.497627769356029</v>
+        <v>4.136274064883992</v>
       </c>
       <c r="C19">
-        <v>1.681288162009082</v>
+        <v>1.802225323977837</v>
       </c>
       <c r="D19">
-        <v>0.6111614163420143</v>
+        <v>0.6087279973816919</v>
       </c>
       <c r="E19">
-        <v>0.2419074571186499</v>
+        <v>0.2399868556838101</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.848845148720812</v>
+        <v>1.561893311001597</v>
       </c>
       <c r="H19">
-        <v>0.02788463509878625</v>
+        <v>0.02752205853695955</v>
       </c>
       <c r="I19">
-        <v>0.005857306004381613</v>
+        <v>0.005618652145411573</v>
       </c>
       <c r="J19">
-        <v>1.056249805439165</v>
+        <v>0.9539808035174246</v>
       </c>
       <c r="K19">
-        <v>0.7368284519711565</v>
+        <v>0.5845757650413006</v>
       </c>
       <c r="L19">
-        <v>0.1242501231884248</v>
+        <v>0.251742283357558</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1998110119538197</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1222750878905785</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6640005552289558</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6827882528944542</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.993493587844739</v>
+        <v>4.548871057250949</v>
       </c>
       <c r="C20">
-        <v>1.952638083787178</v>
+        <v>2.093220385552627</v>
       </c>
       <c r="D20">
-        <v>0.8063737136282612</v>
+        <v>0.8024007193706097</v>
       </c>
       <c r="E20">
-        <v>0.3847649688549666</v>
+        <v>0.3815743422762878</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.256950238022768</v>
+        <v>1.912005183454795</v>
       </c>
       <c r="H20">
-        <v>0.004836323280146715</v>
+        <v>0.003971100351848555</v>
       </c>
       <c r="I20">
-        <v>0.008518271560354229</v>
+        <v>0.007681162159671295</v>
       </c>
       <c r="J20">
-        <v>1.255170065353724</v>
+        <v>1.089016241623511</v>
       </c>
       <c r="K20">
-        <v>0.8884871949941129</v>
+        <v>0.6915060621429419</v>
       </c>
       <c r="L20">
-        <v>0.2489133269318984</v>
+        <v>0.2876235742242415</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2459710392075891</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2455880035095248</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6496969425628144</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6479054048798005</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.660663786001635</v>
+        <v>5.067761525276069</v>
       </c>
       <c r="C21">
-        <v>2.225619752164789</v>
+        <v>2.32817825379027</v>
       </c>
       <c r="D21">
-        <v>0.9119616940753303</v>
+        <v>0.9054208843061247</v>
       </c>
       <c r="E21">
-        <v>0.443200653448848</v>
+        <v>0.437918542254117</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.533125719084723</v>
+        <v>2.246695423957647</v>
       </c>
       <c r="H21">
-        <v>0.00980405456521739</v>
+        <v>0.007863682422320883</v>
       </c>
       <c r="I21">
-        <v>0.01372035001412364</v>
+        <v>0.01141300804903622</v>
       </c>
       <c r="J21">
-        <v>1.381263616488184</v>
+        <v>0.9636160306928616</v>
       </c>
       <c r="K21">
-        <v>0.9710589197413171</v>
+        <v>0.7157813734491398</v>
       </c>
       <c r="L21">
-        <v>0.2939836847641573</v>
+        <v>0.2841817684329229</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2714161314237415</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.2883682987382912</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.6088388098119264</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6165267775834948</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.092367214236901</v>
+        <v>5.397062431593838</v>
       </c>
       <c r="C22">
-        <v>2.393360403808913</v>
+        <v>2.465202559404815</v>
       </c>
       <c r="D22">
-        <v>0.9729981526063511</v>
+        <v>0.9647087108813253</v>
       </c>
       <c r="E22">
-        <v>0.4747493042653446</v>
+        <v>0.4680408131860645</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.706432736738407</v>
+        <v>2.471483148202623</v>
       </c>
       <c r="H22">
-        <v>0.0138413701043566</v>
+        <v>0.0110070058171215</v>
       </c>
       <c r="I22">
-        <v>0.01750339881427543</v>
+        <v>0.01391405573001325</v>
       </c>
       <c r="J22">
-        <v>1.460193294959879</v>
+        <v>0.8731129397287987</v>
       </c>
       <c r="K22">
-        <v>1.023307365185516</v>
+        <v>0.728361750717454</v>
       </c>
       <c r="L22">
-        <v>0.3171644144842958</v>
+        <v>0.2807148481377126</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2872704949277676</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3099532102539087</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5828059229414362</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5982706562630611</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.869944959084307</v>
+        <v>5.236683436708915</v>
       </c>
       <c r="C23">
-        <v>2.300679576076448</v>
+        <v>2.395871084374505</v>
       </c>
       <c r="D23">
-        <v>0.9404170614255918</v>
+        <v>0.9331359389769887</v>
       </c>
       <c r="E23">
-        <v>0.4579261905879832</v>
+        <v>0.4520391280846781</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.620332916641843</v>
+        <v>2.34366422987685</v>
       </c>
       <c r="H23">
-        <v>0.01162508848042976</v>
+        <v>0.009305543785274761</v>
       </c>
       <c r="I23">
-        <v>0.01518726124813785</v>
+        <v>0.01226407278918984</v>
       </c>
       <c r="J23">
-        <v>1.421264664384836</v>
+        <v>0.9462048545510697</v>
       </c>
       <c r="K23">
-        <v>0.9990927232119589</v>
+        <v>0.727827372560327</v>
       </c>
       <c r="L23">
-        <v>0.3048047150351323</v>
+        <v>0.2847077101251472</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2812910819048255</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.298511994323249</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5970259871834347</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6067529780299843</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.018655345910588</v>
+        <v>4.570563194264992</v>
       </c>
       <c r="C24">
-        <v>1.958869683550404</v>
+        <v>2.101219702570063</v>
       </c>
       <c r="D24">
-        <v>0.8182543714001156</v>
+        <v>0.8142153654720801</v>
       </c>
       <c r="E24">
-        <v>0.3948196215652047</v>
+        <v>0.3915718799415373</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.289097532256505</v>
+        <v>1.938346452014855</v>
       </c>
       <c r="H24">
-        <v>0.004891620970445709</v>
+        <v>0.004002567764695764</v>
       </c>
       <c r="I24">
-        <v>0.008176362751682653</v>
+        <v>0.007215048134593616</v>
       </c>
       <c r="J24">
-        <v>1.271282737199158</v>
+        <v>1.104604930286598</v>
       </c>
       <c r="K24">
-        <v>0.9032857083195935</v>
+        <v>0.703311029051747</v>
       </c>
       <c r="L24">
-        <v>0.2587279581490662</v>
+        <v>0.2921280711145045</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2503683915459902</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2553417379586875</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6516252206581101</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.646552450296177</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.10783537079493</v>
+        <v>3.766183299683462</v>
       </c>
       <c r="C25">
-        <v>1.59765811448159</v>
+        <v>1.715373357183978</v>
       </c>
       <c r="D25">
-        <v>0.6887514282680627</v>
+        <v>0.68702195183198</v>
       </c>
       <c r="E25">
-        <v>0.3278819928840448</v>
+        <v>0.3265058243039647</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.942031854031939</v>
+        <v>1.651684651403912</v>
       </c>
       <c r="H25">
-        <v>0.0007755338558750324</v>
+        <v>0.000614987835274583</v>
       </c>
       <c r="I25">
-        <v>0.003221711607908517</v>
+        <v>0.003288749265435875</v>
       </c>
       <c r="J25">
-        <v>1.114738119231248</v>
+        <v>1.001466766828742</v>
       </c>
       <c r="K25">
-        <v>0.8036820134817404</v>
+        <v>0.6430329259803642</v>
       </c>
       <c r="L25">
-        <v>0.2104166258421145</v>
+        <v>0.2872133807608748</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.2065130414368497</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2090313235868564</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7131193268703488</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6980636653536045</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
